--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -728,7 +728,7 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -894,15 +894,27 @@
       <c r="D5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="11"/>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -728,7 +728,7 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -903,9 +903,15 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="11"/>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
       <c r="K5" s="10">
         <v>0</v>
       </c>
@@ -915,9 +921,15 @@
       <c r="M5" s="10">
         <v>0</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="11"/>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="460" windowWidth="22800" windowHeight="12480" tabRatio="500"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="22800" windowHeight="12480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>th_krm</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>3_fuzzy</t>
+  </si>
+  <si>
+    <t>city_of_newyork</t>
   </si>
 </sst>
 </file>
@@ -417,14 +420,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -727,348 +732,350 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="16" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="15" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="12">
         <v>0.1333</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>0.1333</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="7">
         <v>0.1333</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>0.1333</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="7">
         <v>0.1333</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="13">
         <v>0.1333</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="12">
         <v>0.66669999999999996</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="13">
         <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="12">
         <v>0.5</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="12">
         <v>0.5</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="12">
         <v>0.5</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="12">
         <v>0.5</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="12">
         <v>0.5</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="12">
         <v>0.5</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="12">
         <v>0.5</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="12">
         <v>0.5</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="12">
         <v>0.5</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="12">
         <v>0.5</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="12">
         <v>0.5</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="12">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="12">
         <v>0</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="12">
         <v>0</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="12">
         <v>0</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="13">
         <v>0</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="12">
         <v>0</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="12">
         <v>0</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="12">
         <v>0</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="7">
         <v>0</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="7">
         <v>0</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="5" t="s">
+      <c r="D6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="11"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="11"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="14" spans="2:16" ht="32" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G15" t="s">
@@ -1082,13 +1089,13 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G16" t="s">
@@ -1102,13 +1109,13 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G17" t="s">
@@ -1122,13 +1129,13 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G18" t="s">
@@ -1142,13 +1149,13 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G19" t="s">
@@ -1162,13 +1169,13 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G20" t="s">
@@ -1192,37 +1199,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2300</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C3" s="1">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>10180</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8712</v>
       </c>
     </row>
   </sheetData>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="460" windowWidth="22800" windowHeight="12480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="22800" windowHeight="12480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Query</t>
   </si>
   <si>
-    <t>fuzzy_4</t>
-  </si>
-  <si>
     <t>fuzzy_5</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>city_of_newyork</t>
+  </si>
+  <si>
+    <t>4_fuzzy</t>
   </si>
 </sst>
 </file>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -752,7 +752,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
@@ -765,51 +765,51 @@
         <v>8</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="K2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="N2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="12">
         <v>0.1333</v>
@@ -850,10 +850,10 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="12">
         <v>0.5</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
@@ -938,10 +938,10 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="7"/>
@@ -951,7 +951,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="12"/>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -960,7 +960,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="12"/>
@@ -978,7 +978,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="12"/>
@@ -996,7 +996,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="12"/>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="12"/>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="11" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="14"/>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="14" spans="2:16" ht="32" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>0</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>2</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>2</v>
@@ -1099,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>2</v>
@@ -1119,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>2</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>2</v>
@@ -1159,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>2</v>
@@ -1179,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -1201,7 +1201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1215,15 +1215,15 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1">
         <v>2300</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
         <v>10180</v>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>th_krm</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Test 4</t>
-  </si>
-  <si>
-    <t>\</t>
   </si>
   <si>
     <t>5° test</t>
@@ -732,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,7 +749,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
@@ -765,7 +762,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>15</v>
@@ -780,10 +777,10 @@
         <v>25</v>
       </c>
       <c r="I2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>15</v>
@@ -798,18 +795,18 @@
         <v>25</v>
       </c>
       <c r="O2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="12">
         <v>0.1333</v>
@@ -850,10 +847,10 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="12">
         <v>0.5</v>
@@ -894,10 +891,10 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
@@ -938,20 +935,26 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="7" t="s">
-        <v>26</v>
+      <c r="K6" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.25</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -1150,7 +1153,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>2</v>
@@ -1170,7 +1173,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>2</v>
@@ -1215,15 +1218,15 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>2300</v>
@@ -1234,7 +1237,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1">
         <v>10180</v>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,20 +946,36 @@
       <c r="F6" s="12">
         <v>1</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="13"/>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
       <c r="K6" s="12">
         <v>0.25</v>
       </c>
       <c r="L6" s="12">
         <v>0.25</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="13"/>
+      <c r="M6" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="460" windowWidth="22800" windowHeight="12480" tabRatio="500"/>
+    <workbookView xWindow="2020" yWindow="3160" windowWidth="22800" windowHeight="12480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>th_krm</t>
   </si>
@@ -148,13 +148,37 @@
   </si>
   <si>
     <t>4_fuzzy</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>7° test</t>
+  </si>
+  <si>
+    <t>8° test</t>
+  </si>
+  <si>
+    <t>9° test</t>
+  </si>
+  <si>
+    <t>Test 7</t>
+  </si>
+  <si>
+    <t>Test 8</t>
+  </si>
+  <si>
+    <t>Test 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +208,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -211,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -368,12 +399,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -386,24 +467,7 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -417,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -428,9 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -439,13 +500,20 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -727,409 +795,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P20"/>
+  <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="16" width="11.83203125" customWidth="1"/>
+    <col min="5" max="22" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="8" t="s">
+    <row r="1" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="17" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="S2" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="T2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="N3" s="11">
         <v>0.1333</v>
       </c>
-      <c r="F3" s="7">
+      <c r="O3" s="7">
         <v>0.1333</v>
       </c>
-      <c r="G3" s="7">
+      <c r="P3" s="7">
         <v>0.1333</v>
       </c>
-      <c r="H3" s="7">
+      <c r="Q3" s="7">
         <v>0.1333</v>
       </c>
-      <c r="I3" s="7">
+      <c r="R3" s="7">
         <v>0.1333</v>
       </c>
-      <c r="J3" s="13">
+      <c r="S3" s="7">
         <v>0.1333</v>
       </c>
-      <c r="K3" s="12">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="P3" s="13">
-        <v>0.66669999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="T3" s="7">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="U3" s="7">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="V3" s="7">
+        <v>8.2199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="O4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="P4" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E4" s="11"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="12"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E5" s="11"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="12"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12">
-        <v>1</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="N6" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="O6" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="P6" s="12">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E6" s="11"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="12"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="11"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="12"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="11"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="12"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="11"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="12"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="11"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="12"/>
+    </row>
+    <row r="11" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="14" spans="2:16" ht="32" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="15"/>
+    </row>
+    <row r="16" spans="2:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="B16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>7</v>
-      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>2</v>
@@ -1138,10 +1187,10 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="s">
         <v>7</v>
@@ -1149,7 +1198,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>2</v>
@@ -1158,10 +1207,10 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18" t="s">
         <v>7</v>
@@ -1169,7 +1218,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>2</v>
@@ -1178,10 +1227,10 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" t="s">
         <v>7</v>
@@ -1189,28 +1238,128 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I20" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="N1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="3160" windowWidth="22800" windowHeight="12480" tabRatio="500"/>
+    <workbookView xWindow="2160" yWindow="1480" windowWidth="22800" windowHeight="12480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -242,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -266,7 +266,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -275,7 +320,147 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -288,7 +473,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -303,7 +488,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -316,159 +501,6 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -481,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -492,26 +524,38 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -798,7 +842,7 @@
   <dimension ref="B1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,18 +852,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="24" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="25"/>
@@ -829,7 +873,7 @@
       <c r="S1" s="25"/>
       <c r="T1" s="25"/>
       <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
+      <c r="V1" s="26"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
@@ -951,7 +995,7 @@
       <c r="U3" s="7">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="12">
         <v>8.2199999999999995E-2</v>
       </c>
     </row>
@@ -965,21 +1009,45 @@
       <c r="E4" s="11"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="H4" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0.5</v>
+      </c>
       <c r="N4" s="11"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="12"/>
+      <c r="Q4" s="7">
+        <v>1.15E-2</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="S4" s="7">
+        <v>1.15E-2</v>
+      </c>
+      <c r="T4" s="7">
+        <v>1.14E-2</v>
+      </c>
+      <c r="U4" s="7">
+        <v>1.15E-2</v>
+      </c>
+      <c r="V4" s="12">
+        <v>1.15E-2</v>
+      </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,9 +1006,15 @@
       <c r="D4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="E4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H4" s="18">
         <v>0.5</v>
       </c>
@@ -1027,9 +1033,15 @@
       <c r="M4" s="18">
         <v>0.5</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="N4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.5</v>
+      </c>
       <c r="Q4" s="7">
         <v>1.15E-2</v>
       </c>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1074,7 +1074,9 @@
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="11"/>
@@ -1083,7 +1085,9 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
       <c r="U5" s="7"/>
       <c r="V5" s="12"/>
     </row>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -842,7 +842,7 @@
   <dimension ref="B1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,8 +1077,12 @@
       <c r="K5" s="18">
         <v>0</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="L5" s="18">
+        <v>0</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0</v>
+      </c>
       <c r="N5" s="11"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -1088,8 +1092,12 @@
       <c r="T5" s="7">
         <v>0</v>
       </c>
-      <c r="U5" s="7"/>
-      <c r="V5" s="12"/>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1071,9 +1071,15 @@
       <c r="E5" s="11"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
       <c r="K5" s="18">
         <v>0</v>
       </c>
@@ -1086,9 +1092,15 @@
       <c r="N5" s="11"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
       <c r="T5" s="7">
         <v>0</v>
       </c>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1068,9 +1068,15 @@
       <c r="D5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
       <c r="H5" s="18">
         <v>0</v>
       </c>
@@ -1089,9 +1095,15 @@
       <c r="M5" s="18">
         <v>0</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
       <c r="Q5" s="7">
         <v>0</v>
       </c>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -540,6 +540,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,15 +556,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,28 +852,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="24" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="26"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="29"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
@@ -1136,8 +1136,12 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18">
+        <v>1</v>
+      </c>
       <c r="M6" s="18"/>
       <c r="N6" s="11"/>
       <c r="O6" s="7"/>
@@ -1145,8 +1149,12 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+      <c r="T6" s="7">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="U6" s="7">
+        <v>1.4500000000000001E-2</v>
+      </c>
       <c r="V6" s="12"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1480" windowWidth="22800" windowHeight="12480" tabRatio="500"/>
+    <workbookView xWindow="4460" yWindow="1480" windowWidth="22800" windowHeight="12480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,7 +1142,9 @@
       <c r="L6" s="18">
         <v>1</v>
       </c>
-      <c r="M6" s="18"/>
+      <c r="M6" s="18">
+        <v>1</v>
+      </c>
       <c r="N6" s="11"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1155,7 +1157,9 @@
       <c r="U6" s="7">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="V6" s="12"/>
+      <c r="V6" s="12">
+        <v>1.47E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>th_krm</t>
   </si>
@@ -66,9 +66,6 @@
     <t>fuzzy_7</t>
   </si>
   <si>
-    <t>fuzzy_8</t>
-  </si>
-  <si>
     <t>fuzzy_9</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Test 9</t>
+  </si>
+  <si>
+    <t>8_fuzzy</t>
   </si>
 </sst>
 </file>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,7 +853,7 @@
   <sheetData>
     <row r="1" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E1" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -864,7 +864,7 @@
       <c r="L1" s="25"/>
       <c r="M1" s="26"/>
       <c r="N1" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O1" s="28"/>
       <c r="P1" s="28"/>
@@ -880,69 +880,69 @@
         <v>8</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="N2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="Q2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="T2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="11">
         <v>0.66669999999999996</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="11">
         <v>0.5</v>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
@@ -1125,17 +1125,23 @@
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
       <c r="K6" s="18">
         <v>1</v>
       </c>
@@ -1148,9 +1154,15 @@
       <c r="N6" s="11"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="Q6" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0.25</v>
+      </c>
       <c r="T6" s="7">
         <v>1.4500000000000001E-2</v>
       </c>
@@ -1235,9 +1247,11 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" s="11"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1259,7 +1273,7 @@
     </row>
     <row r="11" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="13"/>
@@ -1283,7 +1297,7 @@
     </row>
     <row r="16" spans="2:22" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>0</v>
@@ -1306,7 +1320,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>2</v>
@@ -1326,7 +1340,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>2</v>
@@ -1335,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -1346,7 +1360,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>2</v>
@@ -1355,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1366,13 +1380,13 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
@@ -1386,16 +1400,16 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -1406,16 +1420,16 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -1426,13 +1440,13 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
         <v>4</v>
@@ -1446,16 +1460,16 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -1466,16 +1480,16 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -1511,15 +1525,15 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>2300</v>
@@ -1530,7 +1544,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1">
         <v>10180</v>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -842,7 +842,7 @@
   <dimension ref="B1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,8 +1130,12 @@
       <c r="D6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="18">
         <v>1</v>
@@ -1151,8 +1155,12 @@
       <c r="M6" s="18">
         <v>1</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="7"/>
+      <c r="N6" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0.25</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7">
         <v>0.25</v>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
   <si>
     <t>th_krm</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Query</t>
   </si>
   <si>
-    <t>fuzzy_5</t>
-  </si>
-  <si>
     <t>fuzzy_6</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>8_fuzzy</t>
+  </si>
+  <si>
+    <t>5_fuzzy</t>
   </si>
 </sst>
 </file>
@@ -842,7 +842,7 @@
   <dimension ref="B1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,7 +853,7 @@
   <sheetData>
     <row r="1" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E1" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -864,7 +864,7 @@
       <c r="L1" s="25"/>
       <c r="M1" s="26"/>
       <c r="N1" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="28"/>
       <c r="P1" s="28"/>
@@ -880,69 +880,69 @@
         <v>8</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="K2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="17" t="s">
-        <v>46</v>
-      </c>
       <c r="N2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="Q2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="T2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="11">
         <v>0.66669999999999996</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="11">
         <v>0.5</v>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
@@ -1136,7 +1136,9 @@
       <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
       <c r="H6" s="18">
         <v>1</v>
       </c>
@@ -1161,7 +1163,9 @@
       <c r="O6" s="7">
         <v>0.25</v>
       </c>
-      <c r="P6" s="7"/>
+      <c r="P6" s="7">
+        <v>0.25</v>
+      </c>
       <c r="Q6" s="7">
         <v>0.25</v>
       </c>
@@ -1183,10 +1187,14 @@
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.5</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="18"/>
@@ -1195,7 +1203,9 @@
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="11"/>
+      <c r="N7" s="11">
+        <v>0.33329999999999999</v>
+      </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -1207,7 +1217,7 @@
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="11"/>
@@ -1231,7 +1241,7 @@
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="11"/>
@@ -1255,10 +1265,10 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="7"/>
@@ -1281,7 +1291,7 @@
     </row>
     <row r="11" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="13"/>
@@ -1305,7 +1315,7 @@
     </row>
     <row r="16" spans="2:22" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>0</v>
@@ -1328,7 +1338,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>2</v>
@@ -1348,7 +1358,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>2</v>
@@ -1357,7 +1367,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -1368,7 +1378,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>2</v>
@@ -1377,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1388,13 +1398,13 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
@@ -1408,16 +1418,16 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -1428,16 +1438,16 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -1448,13 +1458,13 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
         <v>4</v>
@@ -1468,16 +1478,16 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -1488,16 +1498,16 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -1533,15 +1543,15 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
         <v>2300</v>
@@ -1552,7 +1562,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
         <v>10180</v>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="1480" windowWidth="22800" windowHeight="12480" tabRatio="500"/>
+    <workbookView xWindow="4420" yWindow="1480" windowWidth="22800" windowHeight="12480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1193,25 +1193,49 @@
         <v>30</v>
       </c>
       <c r="E7" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0.33329999999999999</v>
+      </c>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="7">
         <v>0.33329999999999999</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="R7" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="7">
+        <v>1.15E-2</v>
+      </c>
       <c r="U7" s="7"/>
       <c r="V7" s="12"/>
     </row>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>th_krm</t>
   </si>
@@ -63,6 +63,9 @@
     <t>fuzzy_7</t>
   </si>
   <si>
+    <t>fuzzy_8</t>
+  </si>
+  <si>
     <t>fuzzy_9</t>
   </si>
   <si>
@@ -166,9 +169,6 @@
   </si>
   <si>
     <t>Test 9</t>
-  </si>
-  <si>
-    <t>8_fuzzy</t>
   </si>
   <si>
     <t>5_fuzzy</t>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,7 +853,7 @@
   <sheetData>
     <row r="1" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E1" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -864,7 +864,7 @@
       <c r="L1" s="25"/>
       <c r="M1" s="26"/>
       <c r="N1" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="28"/>
       <c r="P1" s="28"/>
@@ -880,69 +880,69 @@
         <v>8</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="P2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="S2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="U2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="V2" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="11">
         <v>0.66669999999999996</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="11">
         <v>0.5</v>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>36</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
@@ -1190,7 +1190,7 @@
         <v>47</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="11">
         <v>0.33329999999999999</v>
@@ -1213,8 +1213,12 @@
       <c r="K7" s="18">
         <v>0.33329999999999999</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="L7" s="18">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="M7" s="18">
+        <v>0.33329999999999999</v>
+      </c>
       <c r="N7" s="11">
         <v>0.5</v>
       </c>
@@ -1236,8 +1240,12 @@
       <c r="T7" s="7">
         <v>1.15E-2</v>
       </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="12"/>
+      <c r="U7" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="V7" s="12">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -1289,11 +1297,9 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>36</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D10" s="20"/>
       <c r="E10" s="11"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1315,7 +1321,7 @@
     </row>
     <row r="11" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="13"/>
@@ -1339,7 +1345,7 @@
     </row>
     <row r="16" spans="2:22" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>0</v>
@@ -1362,7 +1368,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>2</v>
@@ -1382,7 +1388,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>2</v>
@@ -1391,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -1402,7 +1408,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>2</v>
@@ -1411,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1422,13 +1428,13 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
@@ -1442,16 +1448,16 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -1462,16 +1468,16 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -1482,13 +1488,13 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
         <v>4</v>
@@ -1502,16 +1508,16 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -1522,16 +1528,16 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -1567,15 +1573,15 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>2300</v>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1">
         <v>10180</v>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="1480" windowWidth="22800" windowHeight="12480" tabRatio="500"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="22800" windowHeight="12480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -178,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,6 +215,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -513,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -558,6 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -842,7 +851,7 @@
   <dimension ref="B1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -938,31 +947,31 @@
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="11">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="J3" s="18">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="K3" s="18">
+        <v>0.1333</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.1333</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.1333</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.1333</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.1333</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.1333</v>
+      </c>
+      <c r="K3" s="7">
         <v>0.8</v>
       </c>
       <c r="L3" s="18">
@@ -972,22 +981,22 @@
         <v>0.8</v>
       </c>
       <c r="N3" s="11">
-        <v>0.1333</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="O3" s="7">
-        <v>0.1333</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="P3" s="7">
-        <v>0.1333</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="Q3" s="7">
-        <v>0.1333</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="R3" s="7">
-        <v>0.1333</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="S3" s="7">
-        <v>0.1333</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="T3" s="7">
         <v>7.7899999999999997E-2</v>
@@ -1000,7 +1009,7 @@
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -1062,7 +1071,7 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="30" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -1124,7 +1133,7 @@
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -1186,7 +1195,7 @@
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="20" t="s">

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="460" windowWidth="22800" windowHeight="12480" tabRatio="500"/>
+    <workbookView xWindow="-620" yWindow="6120" windowWidth="25460" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
   <si>
     <t>th_krm</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Query</t>
   </si>
   <si>
-    <t>fuzzy_6</t>
-  </si>
-  <si>
     <t>fuzzy_7</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>3_fuzzy</t>
   </si>
   <si>
-    <t>city_of_newyork</t>
-  </si>
-  <si>
     <t>4_fuzzy</t>
   </si>
   <si>
@@ -172,13 +166,31 @@
   </si>
   <si>
     <t>5_fuzzy</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://africaopendata.org</t>
+  </si>
+  <si>
+    <t>total items</t>
+  </si>
+  <si>
+    <t>by resource</t>
+  </si>
+  <si>
+    <t>by item</t>
+  </si>
+  <si>
+    <t>6_fuzzy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,16 +213,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -224,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +297,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -304,21 +376,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -516,59 +573,229 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -848,717 +1075,1414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V25"/>
+  <dimension ref="B1:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="22" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="7.33203125" customWidth="1"/>
+    <col min="21" max="21" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="39" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="24" t="s">
+    <row r="1" spans="2:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="45"/>
+    </row>
+    <row r="2" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="46"/>
+    </row>
+    <row r="3" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI3" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM3" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.1333</v>
+      </c>
+      <c r="E4" s="47">
+        <v>0.1333</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.1333</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.1333</v>
+      </c>
+      <c r="H4" s="31">
+        <v>0.1333</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.1333</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="N4" s="47">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="R4" s="10">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="S4" s="10">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="T4" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="U4" s="11">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="V4" s="9">
+        <v>1</v>
+      </c>
+      <c r="W4" s="47">
+        <v>1</v>
+      </c>
+      <c r="X4" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AF4" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AH4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AI4" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="AL4" s="10">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="AM4" s="12">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="47">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="10">
+        <v>1.15E-2</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="10">
+        <v>1.15E-2</v>
+      </c>
+      <c r="S5" s="10">
+        <v>1.14E-2</v>
+      </c>
+      <c r="T5" s="10">
+        <v>1.15E-2</v>
+      </c>
+      <c r="U5" s="11">
+        <v>1.15E-2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>1</v>
+      </c>
+      <c r="W5" s="47">
+        <v>1</v>
+      </c>
+      <c r="X5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="24">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="AF5" s="47">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="AH5" s="10">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="AI5" s="31">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="AL5" s="10">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="AM5" s="12">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="47">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="N6" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="47">
+        <v>1</v>
+      </c>
+      <c r="X6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="47">
+        <v>0.51429999999999998</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>0.51429999999999998</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="31">
+        <v>0.4854</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>0.4854</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="10">
+        <v>0.4854</v>
+      </c>
+      <c r="AM6" s="12">
+        <v>0.4854</v>
+      </c>
+    </row>
+    <row r="7" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E7" s="47">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="H7" s="32">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.1333</v>
+      </c>
+      <c r="N7" s="47">
+        <v>0.1333</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0.1333</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0.1333</v>
+      </c>
+      <c r="Q7" s="31">
+        <v>0.1176</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0.1333</v>
+      </c>
+      <c r="S7" s="10">
+        <v>0.1333</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0.1176</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0.1333</v>
+      </c>
+      <c r="V7" s="9">
+        <v>1</v>
+      </c>
+      <c r="W7" s="47">
+        <v>1</v>
+      </c>
+      <c r="X7" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="24">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="AF7" s="47">
+        <v>0.1439</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="AI7" s="31">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="AL7" s="10">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="AM7" s="12">
+        <v>9.7199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="47">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="32">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11">
+        <v>1</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1</v>
+      </c>
+      <c r="N8" s="47">
+        <v>1</v>
+      </c>
+      <c r="O8" s="10">
+        <v>1</v>
+      </c>
+      <c r="P8" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="10">
+        <v>1</v>
+      </c>
+      <c r="S8" s="10">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="T8" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U8" s="11">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="V8" s="9">
+        <v>1</v>
+      </c>
+      <c r="W8" s="47">
+        <v>1</v>
+      </c>
+      <c r="X8" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="47">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="31">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>0.24729999999999999</v>
+      </c>
+      <c r="AL8" s="10">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="AM8" s="12">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B9" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="47">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="32">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="N9" s="47">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="U9" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="47">
+        <v>1</v>
+      </c>
+      <c r="X9" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="47">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="31">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="12"/>
+    </row>
+    <row r="11" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="12"/>
+    </row>
+    <row r="12" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="16"/>
+    </row>
+    <row r="13" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="D13" s="49">
+        <f>AVERAGE(D4:D12)</f>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="E13" s="49">
+        <f t="shared" ref="E13:AM13" si="0">AVERAGE(E4:E12)</f>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="F13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="G13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="H13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="I13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="J13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.91111666666666657</v>
+      </c>
+      <c r="K13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.91111666666666657</v>
+      </c>
+      <c r="L13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.91111666666666657</v>
+      </c>
+      <c r="M13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="N13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.5638833333333334</v>
+      </c>
+      <c r="O13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.5638833333333334</v>
+      </c>
+      <c r="P13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.41858333333333331</v>
+      </c>
+      <c r="Q13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.42238333333333333</v>
+      </c>
+      <c r="R13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.4060833333333333</v>
+      </c>
+      <c r="S13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.1648833333333333</v>
+      </c>
+      <c r="T13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.17063333333333333</v>
+      </c>
+      <c r="U13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.15311666666666665</v>
+      </c>
+      <c r="V13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W13" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z13" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC13" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.41716666666666669</v>
+      </c>
+      <c r="AF13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.67621666666666658</v>
+      </c>
+      <c r="AG13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.5259166666666667</v>
+      </c>
+      <c r="AH13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.41716666666666669</v>
+      </c>
+      <c r="AI13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.66361666666666663</v>
+      </c>
+      <c r="AJ13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.52110000000000001</v>
+      </c>
+      <c r="AK13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.2089</v>
+      </c>
+      <c r="AL13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.46888333333333332</v>
+      </c>
+      <c r="AM13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.35404999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="29"/>
-    </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.1333</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.1333</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.1333</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.1333</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.1333</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.1333</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="L3" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="M3" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="T3" s="7">
-        <v>7.7899999999999997E-2</v>
-      </c>
-      <c r="U3" s="7">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="V3" s="12">
-        <v>8.2199999999999995E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>1.15E-2</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="S4" s="7">
-        <v>1.15E-2</v>
-      </c>
-      <c r="T4" s="7">
-        <v>1.14E-2</v>
-      </c>
-      <c r="U4" s="7">
-        <v>1.15E-2</v>
-      </c>
-      <c r="V4" s="12">
-        <v>1.15E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="C17" s="42"/>
+      <c r="D17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
-        <v>0</v>
-      </c>
-      <c r="M5" s="18">
-        <v>0</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="18">
-        <v>1</v>
-      </c>
-      <c r="I6" s="18">
-        <v>1</v>
-      </c>
-      <c r="J6" s="18">
-        <v>1</v>
-      </c>
-      <c r="K6" s="18">
-        <v>1</v>
-      </c>
-      <c r="L6" s="18">
-        <v>1</v>
-      </c>
-      <c r="M6" s="18">
-        <v>1</v>
-      </c>
-      <c r="N6" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="T6" s="7">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="U6" s="7">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="V6" s="12">
-        <v>1.47E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="K7" s="18">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="L7" s="18">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="M7" s="18">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="T7" s="7">
-        <v>1.15E-2</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="V7" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="12"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="12"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="12"/>
-    </row>
-    <row r="11" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="15"/>
-    </row>
-    <row r="16" spans="2:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="B16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G19" t="s">
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H19">
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="2" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="D24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
         <v>4</v>
       </c>
-      <c r="H20">
+      <c r="G24">
         <v>3</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
         <v>21</v>
       </c>
-      <c r="H21">
+      <c r="G26">
         <v>3</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="N1:V1"/>
+  <mergeCells count="7">
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="V1:AM1"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1566,51 +2490,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>2300</v>
       </c>
-      <c r="C3" s="1">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
         <v>10180</v>
       </c>
-      <c r="C4" s="1">
-        <v>8712</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>4838568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-620" yWindow="6120" windowWidth="25460" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="25460" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
   <si>
     <t>th_krm</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Query</t>
   </si>
   <si>
-    <t>fuzzy_7</t>
-  </si>
-  <si>
     <t>fuzzy_8</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>6_fuzzy</t>
+  </si>
+  <si>
+    <t>7_fuzzy</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -736,7 +736,6 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -752,6 +751,11 @@
     <xf numFmtId="10" fontId="6" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -788,11 +792,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
@@ -1077,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1088,8 +1087,7 @@
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="20" width="7.33203125" customWidth="1"/>
-    <col min="21" max="21" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.5" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="8.1640625" bestFit="1" customWidth="1"/>
@@ -1099,220 +1097,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="45"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="49"/>
     </row>
     <row r="2" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38" t="s">
+      <c r="D2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="50"/>
+    </row>
+    <row r="3" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="46"/>
-    </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE3" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI3" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM3" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="X3" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z3" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA3" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC3" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE3" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF3" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG3" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH3" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI3" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ3" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL3" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM3" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="D4" s="9">
         <v>0.1333</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="34">
         <v>0.1333</v>
       </c>
       <c r="F4" s="10">
@@ -1321,7 +1319,7 @@
       <c r="G4" s="10">
         <v>0.1333</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="30">
         <v>0.1333</v>
       </c>
       <c r="I4" s="10">
@@ -1339,7 +1337,7 @@
       <c r="M4" s="9">
         <v>0.66669999999999996</v>
       </c>
-      <c r="N4" s="47">
+      <c r="N4" s="34">
         <v>0.66669999999999996</v>
       </c>
       <c r="O4" s="10">
@@ -1348,7 +1346,7 @@
       <c r="P4" s="10">
         <v>0.66669999999999996</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="30">
         <v>0.66669999999999996</v>
       </c>
       <c r="R4" s="10">
@@ -1366,7 +1364,7 @@
       <c r="V4" s="9">
         <v>1</v>
       </c>
-      <c r="W4" s="47">
+      <c r="W4" s="34">
         <v>1</v>
       </c>
       <c r="X4" s="10">
@@ -1375,7 +1373,7 @@
       <c r="Y4" s="10">
         <v>1</v>
       </c>
-      <c r="Z4" s="31">
+      <c r="Z4" s="30">
         <v>1</v>
       </c>
       <c r="AA4" s="10">
@@ -1390,10 +1388,10 @@
       <c r="AD4" s="12">
         <v>1</v>
       </c>
-      <c r="AE4" s="24">
+      <c r="AE4" s="23">
         <v>0.5</v>
       </c>
-      <c r="AF4" s="47">
+      <c r="AF4" s="34">
         <v>0.5</v>
       </c>
       <c r="AG4" s="10">
@@ -1402,7 +1400,7 @@
       <c r="AH4" s="10">
         <v>0.5</v>
       </c>
-      <c r="AI4" s="31">
+      <c r="AI4" s="30">
         <v>0.5</v>
       </c>
       <c r="AJ4" s="10">
@@ -1419,16 +1417,16 @@
       </c>
     </row>
     <row r="5" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B5" s="22" t="s">
-        <v>34</v>
+      <c r="B5" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="34">
         <v>1</v>
       </c>
       <c r="F5" s="10">
@@ -1437,7 +1435,7 @@
       <c r="G5" s="11">
         <v>1</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <v>1</v>
       </c>
       <c r="I5" s="11">
@@ -1455,7 +1453,7 @@
       <c r="M5" s="9">
         <v>0.5</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N5" s="34">
         <v>0.5</v>
       </c>
       <c r="O5" s="10">
@@ -1464,7 +1462,7 @@
       <c r="P5" s="10">
         <v>1.15E-2</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="30">
         <v>0.5</v>
       </c>
       <c r="R5" s="10">
@@ -1482,7 +1480,7 @@
       <c r="V5" s="9">
         <v>1</v>
       </c>
-      <c r="W5" s="47">
+      <c r="W5" s="34">
         <v>1</v>
       </c>
       <c r="X5" s="10">
@@ -1491,7 +1489,7 @@
       <c r="Y5" s="10">
         <v>1</v>
       </c>
-      <c r="Z5" s="31">
+      <c r="Z5" s="30">
         <v>1</v>
       </c>
       <c r="AA5" s="10">
@@ -1506,10 +1504,10 @@
       <c r="AD5" s="12">
         <v>1</v>
       </c>
-      <c r="AE5" s="24">
+      <c r="AE5" s="23">
         <v>0.89910000000000001</v>
       </c>
-      <c r="AF5" s="47">
+      <c r="AF5" s="34">
         <v>0.89910000000000001</v>
       </c>
       <c r="AG5" s="10">
@@ -1518,7 +1516,7 @@
       <c r="AH5" s="10">
         <v>0.89910000000000001</v>
       </c>
-      <c r="AI5" s="31">
+      <c r="AI5" s="30">
         <v>0.89910000000000001</v>
       </c>
       <c r="AJ5" s="10">
@@ -1535,16 +1533,16 @@
       </c>
     </row>
     <row r="6" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
-        <v>35</v>
+      <c r="B6" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="34">
         <v>1</v>
       </c>
       <c r="F6" s="10">
@@ -1553,7 +1551,7 @@
       <c r="G6" s="11">
         <v>1</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="31">
         <v>1</v>
       </c>
       <c r="I6" s="11">
@@ -1571,7 +1569,7 @@
       <c r="M6" s="9">
         <v>0.75</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N6" s="34">
         <v>0.75</v>
       </c>
       <c r="O6" s="10">
@@ -1580,7 +1578,7 @@
       <c r="P6" s="10">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="30">
         <v>0.5</v>
       </c>
       <c r="R6" s="10">
@@ -1598,7 +1596,7 @@
       <c r="V6" s="9">
         <v>0</v>
       </c>
-      <c r="W6" s="47">
+      <c r="W6" s="34">
         <v>1</v>
       </c>
       <c r="X6" s="10">
@@ -1607,7 +1605,7 @@
       <c r="Y6" s="10">
         <v>0</v>
       </c>
-      <c r="Z6" s="31">
+      <c r="Z6" s="30">
         <v>1</v>
       </c>
       <c r="AA6" s="10">
@@ -1622,10 +1620,10 @@
       <c r="AD6" s="12">
         <v>1</v>
       </c>
-      <c r="AE6" s="24">
+      <c r="AE6" s="23">
         <v>0</v>
       </c>
-      <c r="AF6" s="47">
+      <c r="AF6" s="34">
         <v>0.51429999999999998</v>
       </c>
       <c r="AG6" s="10">
@@ -1634,7 +1632,7 @@
       <c r="AH6" s="10">
         <v>0</v>
       </c>
-      <c r="AI6" s="31">
+      <c r="AI6" s="30">
         <v>0.4854</v>
       </c>
       <c r="AJ6" s="10">
@@ -1651,16 +1649,16 @@
       </c>
     </row>
     <row r="7" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
-        <v>36</v>
+      <c r="B7" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="9">
         <v>0.66669999999999996</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="34">
         <v>0.66669999999999996</v>
       </c>
       <c r="F7" s="10">
@@ -1669,7 +1667,7 @@
       <c r="G7" s="10">
         <v>0.66669999999999996</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <v>0.66669999999999996</v>
       </c>
       <c r="I7" s="11">
@@ -1687,7 +1685,7 @@
       <c r="M7" s="9">
         <v>0.1333</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N7" s="34">
         <v>0.1333</v>
       </c>
       <c r="O7" s="10">
@@ -1696,7 +1694,7 @@
       <c r="P7" s="10">
         <v>0.1333</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="30">
         <v>0.1176</v>
       </c>
       <c r="R7" s="10">
@@ -1714,7 +1712,7 @@
       <c r="V7" s="9">
         <v>1</v>
       </c>
-      <c r="W7" s="47">
+      <c r="W7" s="34">
         <v>1</v>
       </c>
       <c r="X7" s="10">
@@ -1723,7 +1721,7 @@
       <c r="Y7" s="10">
         <v>1</v>
       </c>
-      <c r="Z7" s="31">
+      <c r="Z7" s="30">
         <v>1</v>
       </c>
       <c r="AA7" s="10">
@@ -1738,10 +1736,10 @@
       <c r="AD7" s="12">
         <v>1</v>
       </c>
-      <c r="AE7" s="24">
+      <c r="AE7" s="23">
         <v>0.10390000000000001</v>
       </c>
-      <c r="AF7" s="47">
+      <c r="AF7" s="34">
         <v>0.1439</v>
       </c>
       <c r="AG7" s="10">
@@ -1750,7 +1748,7 @@
       <c r="AH7" s="10">
         <v>0.10390000000000001</v>
       </c>
-      <c r="AI7" s="31">
+      <c r="AI7" s="30">
         <v>9.7199999999999995E-2</v>
       </c>
       <c r="AJ7" s="10">
@@ -1767,16 +1765,16 @@
       </c>
     </row>
     <row r="8" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
-        <v>45</v>
+      <c r="B8" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="34">
         <v>1</v>
       </c>
       <c r="F8" s="10">
@@ -1785,7 +1783,7 @@
       <c r="G8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <v>1</v>
       </c>
       <c r="I8" s="11">
@@ -1803,7 +1801,7 @@
       <c r="M8" s="9">
         <v>1</v>
       </c>
-      <c r="N8" s="47">
+      <c r="N8" s="34">
         <v>1</v>
       </c>
       <c r="O8" s="10">
@@ -1812,7 +1810,7 @@
       <c r="P8" s="10">
         <v>1</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="30">
         <v>0.5</v>
       </c>
       <c r="R8" s="10">
@@ -1830,7 +1828,7 @@
       <c r="V8" s="9">
         <v>1</v>
       </c>
-      <c r="W8" s="47">
+      <c r="W8" s="34">
         <v>1</v>
       </c>
       <c r="X8" s="10">
@@ -1839,7 +1837,7 @@
       <c r="Y8" s="10">
         <v>1</v>
       </c>
-      <c r="Z8" s="31">
+      <c r="Z8" s="30">
         <v>1</v>
       </c>
       <c r="AA8" s="10">
@@ -1857,7 +1855,7 @@
       <c r="AE8" s="9">
         <v>1</v>
       </c>
-      <c r="AF8" s="47">
+      <c r="AF8" s="34">
         <v>1</v>
       </c>
       <c r="AG8" s="10">
@@ -1866,7 +1864,7 @@
       <c r="AH8" s="10">
         <v>1</v>
       </c>
-      <c r="AI8" s="31">
+      <c r="AI8" s="30">
         <v>1</v>
       </c>
       <c r="AJ8" s="10">
@@ -1883,16 +1881,16 @@
       </c>
     </row>
     <row r="9" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B9" s="22" t="s">
-        <v>51</v>
+      <c r="B9" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="34">
         <v>1</v>
       </c>
       <c r="F9" s="10">
@@ -1901,7 +1899,7 @@
       <c r="G9" s="11">
         <v>1</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <v>1</v>
       </c>
       <c r="I9" s="11">
@@ -1919,7 +1917,7 @@
       <c r="M9" s="9">
         <v>0.2</v>
       </c>
-      <c r="N9" s="47">
+      <c r="N9" s="34">
         <v>0.33329999999999999</v>
       </c>
       <c r="O9" s="10">
@@ -1928,7 +1926,7 @@
       <c r="P9" s="10">
         <v>0.2</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="30">
         <v>0.25</v>
       </c>
       <c r="R9" s="10">
@@ -1946,7 +1944,7 @@
       <c r="V9" s="9">
         <v>0</v>
       </c>
-      <c r="W9" s="47">
+      <c r="W9" s="34">
         <v>1</v>
       </c>
       <c r="X9" s="10">
@@ -1955,7 +1953,7 @@
       <c r="Y9" s="10">
         <v>0</v>
       </c>
-      <c r="Z9" s="31">
+      <c r="Z9" s="30">
         <v>1</v>
       </c>
       <c r="AA9" s="10">
@@ -1970,10 +1968,10 @@
       <c r="AD9" s="12">
         <v>1</v>
       </c>
-      <c r="AE9" s="24">
+      <c r="AE9" s="23">
         <v>0</v>
       </c>
-      <c r="AF9" s="47">
+      <c r="AF9" s="34">
         <v>1</v>
       </c>
       <c r="AG9" s="10">
@@ -1982,7 +1980,7 @@
       <c r="AH9" s="10">
         <v>0</v>
       </c>
-      <c r="AI9" s="31">
+      <c r="AI9" s="30">
         <v>1</v>
       </c>
       <c r="AJ9" s="10">
@@ -1999,282 +1997,356 @@
       </c>
     </row>
     <row r="10" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="34">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="30">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="34">
+        <v>1</v>
+      </c>
+      <c r="O10" s="10">
+        <v>1</v>
+      </c>
+      <c r="P10" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="30">
+        <v>1</v>
+      </c>
+      <c r="R10" s="10">
+        <v>1</v>
+      </c>
+      <c r="S10" s="10">
+        <v>1</v>
+      </c>
+      <c r="T10" s="10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="11">
+        <v>1</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="34">
+        <v>1</v>
+      </c>
+      <c r="X10" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="34">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="AH10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="AK10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="12">
+        <v>0.94740000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B11" s="22" t="s">
         <v>9</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="12"/>
-    </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
-        <v>10</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="47"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="31"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="47"/>
+      <c r="N11" s="34"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="31"/>
+      <c r="Q11" s="30"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="11"/>
       <c r="V11" s="9"/>
-      <c r="W11" s="47"/>
+      <c r="W11" s="34"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="31"/>
+      <c r="Z11" s="30"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="12"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="47"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="34"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="31"/>
+      <c r="AI11" s="30"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
       <c r="AM11" s="12"/>
     </row>
     <row r="12" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="20"/>
+      <c r="B12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="48"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="33"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="48"/>
+      <c r="N12" s="35"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="33"/>
+      <c r="Q12" s="32"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
       <c r="V12" s="13"/>
-      <c r="W12" s="48"/>
+      <c r="W12" s="35"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
-      <c r="Z12" s="33"/>
+      <c r="Z12" s="32"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="16"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="48"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="35"/>
       <c r="AG12" s="14"/>
       <c r="AH12" s="14"/>
-      <c r="AI12" s="33"/>
+      <c r="AI12" s="32"/>
       <c r="AJ12" s="14"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="14"/>
       <c r="AM12" s="16"/>
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="D13" s="49">
+      <c r="D13" s="36">
         <f>AVERAGE(D4:D12)</f>
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="E13" s="49">
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="E13" s="36">
         <f t="shared" ref="E13:AM13" si="0">AVERAGE(E4:E12)</f>
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="F13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="G13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="H13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="I13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="J13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.91111666666666657</v>
-      </c>
-      <c r="K13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.91111666666666657</v>
-      </c>
-      <c r="L13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.91111666666666657</v>
-      </c>
-      <c r="M13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.54166666666666674</v>
-      </c>
-      <c r="N13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.5638833333333334</v>
-      </c>
-      <c r="O13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.5638833333333334</v>
-      </c>
-      <c r="P13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.41858333333333331</v>
-      </c>
-      <c r="Q13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.42238333333333333</v>
-      </c>
-      <c r="R13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.4060833333333333</v>
-      </c>
-      <c r="S13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.1648833333333333</v>
-      </c>
-      <c r="T13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.17063333333333333</v>
-      </c>
-      <c r="U13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.15311666666666665</v>
-      </c>
-      <c r="V13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="W13" s="49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X13" s="49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Z13" s="49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AA13" s="49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AC13" s="49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD13" s="49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.41716666666666669</v>
-      </c>
-      <c r="AF13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.67621666666666658</v>
-      </c>
-      <c r="AG13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.5259166666666667</v>
-      </c>
-      <c r="AH13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.41716666666666669</v>
-      </c>
-      <c r="AI13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.66361666666666663</v>
-      </c>
-      <c r="AJ13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.52110000000000001</v>
-      </c>
-      <c r="AK13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.2089</v>
-      </c>
-      <c r="AL13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.46888333333333332</v>
-      </c>
-      <c r="AM13" s="49">
-        <f t="shared" si="0"/>
-        <v>0.35404999999999998</v>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="F13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="H13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="I13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="J13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.92381428571428559</v>
+      </c>
+      <c r="K13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.92381428571428559</v>
+      </c>
+      <c r="L13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.92381428571428559</v>
+      </c>
+      <c r="M13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="N13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.62618571428571435</v>
+      </c>
+      <c r="O13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.62618571428571435</v>
+      </c>
+      <c r="P13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.50164285714285717</v>
+      </c>
+      <c r="Q13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.50490000000000002</v>
+      </c>
+      <c r="R13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.49092857142857138</v>
+      </c>
+      <c r="S13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.28418571428571426</v>
+      </c>
+      <c r="T13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.28911428571428571</v>
+      </c>
+      <c r="U13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.27409999999999995</v>
+      </c>
+      <c r="V13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="W13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Z13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AC13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.3575714285714286</v>
+      </c>
+      <c r="AF13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.72247142857142854</v>
+      </c>
+      <c r="AG13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.58612857142857144</v>
+      </c>
+      <c r="AH13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.3575714285714286</v>
+      </c>
+      <c r="AI13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.71167142857142862</v>
+      </c>
+      <c r="AJ13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AK13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.17905714285714286</v>
+      </c>
+      <c r="AL13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.54475714285714283</v>
+      </c>
+      <c r="AM13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.43881428571428571</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="B17" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="42"/>
+      <c r="B17" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="46"/>
       <c r="D17" s="2" t="s">
         <v>0</v>
       </c>
@@ -2296,7 +2368,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>2</v>
@@ -2316,7 +2388,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>2</v>
@@ -2325,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2336,7 +2408,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>2</v>
@@ -2345,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2356,13 +2428,13 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
         <v>4</v>
@@ -2376,16 +2448,16 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2396,16 +2468,16 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2416,13 +2488,13 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
@@ -2436,16 +2508,16 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2456,16 +2528,16 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2505,12 +2577,12 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>2300</v>
@@ -2518,7 +2590,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1">
         <v>10180</v>
@@ -2526,7 +2598,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>4838568</v>
@@ -2534,10 +2606,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>th_krm</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Query</t>
   </si>
   <si>
-    <t>fuzzy_8</t>
-  </si>
-  <si>
     <t>fuzzy_9</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>7_fuzzy</t>
+  </si>
+  <si>
+    <t>8_fuzzy</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
   <dimension ref="B1:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1098,7 +1098,7 @@
   <sheetData>
     <row r="1" spans="2:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
@@ -1118,7 +1118,7 @@
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
       <c r="V1" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W1" s="48"/>
       <c r="X1" s="48"/>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="2" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D2" s="39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
@@ -1151,7 +1151,7 @@
       <c r="K2" s="40"/>
       <c r="L2" s="41"/>
       <c r="M2" s="42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2" s="43"/>
       <c r="O2" s="43"/>
@@ -1162,7 +1162,7 @@
       <c r="T2" s="43"/>
       <c r="U2" s="44"/>
       <c r="V2" s="39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W2" s="40"/>
       <c r="X2" s="40"/>
@@ -1173,7 +1173,7 @@
       <c r="AC2" s="40"/>
       <c r="AD2" s="41"/>
       <c r="AE2" s="42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF2" s="43"/>
       <c r="AG2" s="43"/>
@@ -1189,123 +1189,123 @@
         <v>8</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="J3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="M3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="O3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="P3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="S3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="V3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="37" t="s">
+      <c r="X3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="26" t="s">
-        <v>14</v>
-      </c>
       <c r="Y3" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" s="26" t="s">
-        <v>26</v>
-      </c>
       <c r="AB3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AC3" s="26" t="s">
+      <c r="AD3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AD3" s="27" t="s">
-        <v>43</v>
-      </c>
       <c r="AE3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="37" t="s">
+      <c r="AG3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="26" t="s">
-        <v>14</v>
-      </c>
       <c r="AH3" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AJ3" s="26" t="s">
-        <v>26</v>
-      </c>
       <c r="AK3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AL3" s="26" t="s">
+      <c r="AM3" s="27" t="s">
         <v>42</v>
-      </c>
-      <c r="AM3" s="27" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B4" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="9">
         <v>0.1333</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="5" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="6" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="7" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="9">
         <v>0.66669999999999996</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="8" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B8" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="9" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B9" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -1998,10 +1998,10 @@
     </row>
     <row r="10" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B10" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -2113,11 +2113,15 @@
       </c>
     </row>
     <row r="11" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
       <c r="E11" s="34"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -2126,7 +2130,9 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="9"/>
+      <c r="M11" s="9">
+        <v>0.5</v>
+      </c>
       <c r="N11" s="34"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -2135,7 +2141,9 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="9"/>
+      <c r="V11" s="9">
+        <v>1</v>
+      </c>
       <c r="W11" s="34"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
@@ -2144,7 +2152,9 @@
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="12"/>
-      <c r="AE11" s="23"/>
+      <c r="AE11" s="23">
+        <v>0.5</v>
+      </c>
       <c r="AF11" s="34"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
@@ -2156,7 +2166,7 @@
     </row>
     <row r="12" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="13"/>
@@ -2199,7 +2209,7 @@
     <row r="13" spans="2:39" x14ac:dyDescent="0.2">
       <c r="D13" s="36">
         <f>AVERAGE(D4:D12)</f>
-        <v>0.82857142857142863</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="E13" s="36">
         <f t="shared" ref="E13:AM13" si="0">AVERAGE(E4:E12)</f>
@@ -2235,7 +2245,7 @@
       </c>
       <c r="M13" s="36">
         <f t="shared" si="0"/>
-        <v>0.6071428571428571</v>
+        <v>0.59375</v>
       </c>
       <c r="N13" s="36">
         <f t="shared" si="0"/>
@@ -2271,32 +2281,32 @@
       </c>
       <c r="V13" s="36">
         <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="W13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="36">
+        <f t="shared" si="0"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="W13" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X13" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y13" s="36">
+      <c r="Z13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="36">
         <f t="shared" si="0"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="Z13" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AA13" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
-      </c>
       <c r="AC13" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2307,7 +2317,7 @@
       </c>
       <c r="AE13" s="36">
         <f t="shared" si="0"/>
-        <v>0.3575714285714286</v>
+        <v>0.37537500000000001</v>
       </c>
       <c r="AF13" s="36">
         <f t="shared" si="0"/>
@@ -2344,7 +2354,7 @@
     </row>
     <row r="17" spans="2:11" ht="64" x14ac:dyDescent="0.2">
       <c r="B17" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="2" t="s">
@@ -2368,7 +2378,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>2</v>
@@ -2388,7 +2398,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>2</v>
@@ -2397,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2408,7 +2418,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>2</v>
@@ -2417,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2428,13 +2438,13 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
         <v>4</v>
@@ -2448,16 +2458,16 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2468,16 +2478,16 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2488,13 +2498,13 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
@@ -2508,16 +2518,16 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2528,16 +2538,16 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2577,12 +2587,12 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1">
         <v>2300</v>
@@ -2590,7 +2600,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>10180</v>
@@ -2598,7 +2608,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>4838568</v>
@@ -2606,10 +2616,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25460" windowHeight="13600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="860" yWindow="1200" windowWidth="25460" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
-    <sheet name="dataset" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
   <si>
     <t>th_krm</t>
   </si>
@@ -57,9 +56,6 @@
     <t>Query</t>
   </si>
   <si>
-    <t>fuzzy_9</t>
-  </si>
-  <si>
     <t>1° test</t>
   </si>
   <si>
@@ -184,6 +180,9 @@
   </si>
   <si>
     <t>8_fuzzy</t>
+  </si>
+  <si>
+    <t>9_fuzzy</t>
   </si>
 </sst>
 </file>
@@ -272,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,8 +320,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -406,16 +417,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -424,67 +433,11 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -511,19 +464,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -646,19 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -706,6 +633,67 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -714,84 +702,93 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
@@ -1076,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM26"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,1357 +1094,1440 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="49"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="37"/>
     </row>
     <row r="2" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="50"/>
+      <c r="D2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="38"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="29" t="s">
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="O3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="29" t="s">
+      <c r="P3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="25" t="s">
+      <c r="V3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="37" t="s">
+      <c r="X3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z3" s="33" t="s">
+      <c r="Y3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB3" s="26" t="s">
+      <c r="AB3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AC3" s="26" t="s">
+      <c r="AD3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AD3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE3" s="28" t="s">
+      <c r="AE3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="37" t="s">
+      <c r="AG3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI3" s="33" t="s">
+      <c r="AH3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AJ3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK3" s="26" t="s">
+      <c r="AK3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AL3" s="26" t="s">
+      <c r="AM3" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="AM3" s="27" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="B4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7">
         <v>0.1333</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="24">
         <v>0.1333</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>0.1333</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>0.1333</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="21">
         <v>0.1333</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <v>0.1333</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="8">
         <v>0.8</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <v>0.8</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <v>0.8</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="24">
         <v>0.66669999999999996</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="8">
         <v>0.66669999999999996</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <v>0.66669999999999996</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="21">
         <v>0.66669999999999996</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="8">
         <v>0.66669999999999996</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="8">
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="8">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="9">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="V4" s="9">
-        <v>1</v>
-      </c>
-      <c r="W4" s="34">
-        <v>1</v>
-      </c>
-      <c r="X4" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="23">
+      <c r="V4" s="7">
+        <v>1</v>
+      </c>
+      <c r="W4" s="24">
+        <v>1</v>
+      </c>
+      <c r="X4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="15">
         <v>0.5</v>
       </c>
-      <c r="AF4" s="34">
+      <c r="AF4" s="24">
         <v>0.5</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="8">
         <v>0.5</v>
       </c>
-      <c r="AH4" s="10">
+      <c r="AH4" s="8">
         <v>0.5</v>
       </c>
-      <c r="AI4" s="30">
+      <c r="AI4" s="21">
         <v>0.5</v>
       </c>
-      <c r="AJ4" s="10">
+      <c r="AJ4" s="8">
         <v>0.5</v>
       </c>
-      <c r="AK4" s="10">
+      <c r="AK4" s="8">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="AL4" s="10">
+      <c r="AL4" s="8">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="AM4" s="12">
+      <c r="AM4" s="10">
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="34">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1</v>
-      </c>
-      <c r="H5" s="31">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11">
-        <v>1</v>
-      </c>
-      <c r="K5" s="11">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11">
-        <v>1</v>
-      </c>
-      <c r="M5" s="9">
+      <c r="B5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
         <v>0.5</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="24">
         <v>0.5</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="8">
         <v>0.5</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="8">
         <v>1.15E-2</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="21">
         <v>0.5</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="8">
         <v>1.15E-2</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="8">
         <v>1.14E-2</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="8">
         <v>1.15E-2</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="9">
         <v>1.15E-2</v>
       </c>
-      <c r="V5" s="9">
-        <v>1</v>
-      </c>
-      <c r="W5" s="34">
-        <v>1</v>
-      </c>
-      <c r="X5" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="23">
+      <c r="V5" s="7">
+        <v>1</v>
+      </c>
+      <c r="W5" s="24">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="15">
         <v>0.89910000000000001</v>
       </c>
-      <c r="AF5" s="34">
+      <c r="AF5" s="24">
         <v>0.89910000000000001</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AG5" s="8">
         <v>0.54400000000000004</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AH5" s="8">
         <v>0.89910000000000001</v>
       </c>
-      <c r="AI5" s="30">
+      <c r="AI5" s="21">
         <v>0.89910000000000001</v>
       </c>
-      <c r="AJ5" s="10">
+      <c r="AJ5" s="8">
         <v>0.54400000000000004</v>
       </c>
-      <c r="AK5" s="10">
+      <c r="AK5" s="8">
         <v>0.89910000000000001</v>
       </c>
-      <c r="AL5" s="10">
+      <c r="AL5" s="8">
         <v>0.89910000000000001</v>
       </c>
-      <c r="AM5" s="12">
+      <c r="AM5" s="10">
         <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="6" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="34">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="31">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11">
-        <v>1</v>
-      </c>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
-      <c r="M6" s="9">
+      <c r="B6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="22">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
         <v>0.75</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="24">
         <v>0.75</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="8">
         <v>0.75</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="21">
         <v>0.5</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="8">
         <v>0.375</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="8">
         <v>0.5</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="8">
         <v>0.5</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="9">
         <v>0.375</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="7">
         <v>0</v>
       </c>
-      <c r="W6" s="34">
-        <v>1</v>
-      </c>
-      <c r="X6" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="10">
+      <c r="W6" s="24">
+        <v>1</v>
+      </c>
+      <c r="X6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="8">
         <v>0</v>
       </c>
-      <c r="Z6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="10">
+      <c r="Z6" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="8">
         <v>0</v>
       </c>
-      <c r="AC6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="23">
+      <c r="AC6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="15">
         <v>0</v>
       </c>
-      <c r="AF6" s="34">
+      <c r="AF6" s="24">
         <v>0.51429999999999998</v>
       </c>
-      <c r="AG6" s="10">
+      <c r="AG6" s="8">
         <v>0.51429999999999998</v>
       </c>
-      <c r="AH6" s="10">
+      <c r="AH6" s="8">
         <v>0</v>
       </c>
-      <c r="AI6" s="30">
+      <c r="AI6" s="21">
         <v>0.4854</v>
       </c>
-      <c r="AJ6" s="10">
+      <c r="AJ6" s="8">
         <v>0.4854</v>
       </c>
-      <c r="AK6" s="10">
+      <c r="AK6" s="8">
         <v>0</v>
       </c>
-      <c r="AL6" s="10">
+      <c r="AL6" s="8">
         <v>0.4854</v>
       </c>
-      <c r="AM6" s="12">
+      <c r="AM6" s="10">
         <v>0.4854</v>
       </c>
     </row>
     <row r="7" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="B7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="24">
         <v>0.66669999999999996</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>0.66669999999999996</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>0.66669999999999996</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="22">
         <v>0.66669999999999996</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="9">
         <v>0.66669999999999996</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="9">
         <v>0.66669999999999996</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>0.66669999999999996</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="9">
         <v>0.66669999999999996</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <v>0.1333</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="24">
         <v>0.1333</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="8">
         <v>0.1333</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="8">
         <v>0.1333</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="21">
         <v>0.1176</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="8">
         <v>0.1333</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="8">
         <v>0.1333</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="8">
         <v>0.1176</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="9">
         <v>0.1333</v>
       </c>
-      <c r="V7" s="9">
-        <v>1</v>
-      </c>
-      <c r="W7" s="34">
-        <v>1</v>
-      </c>
-      <c r="X7" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="23">
+      <c r="V7" s="7">
+        <v>1</v>
+      </c>
+      <c r="W7" s="24">
+        <v>1</v>
+      </c>
+      <c r="X7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="15">
         <v>0.10390000000000001</v>
       </c>
-      <c r="AF7" s="34">
+      <c r="AF7" s="24">
         <v>0.1439</v>
       </c>
-      <c r="AG7" s="10">
+      <c r="AG7" s="8">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="AH7" s="10">
+      <c r="AH7" s="8">
         <v>0.10390000000000001</v>
       </c>
-      <c r="AI7" s="30">
+      <c r="AI7" s="21">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="AJ7" s="10">
+      <c r="AJ7" s="8">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="AK7" s="10">
+      <c r="AK7" s="8">
         <v>0.10390000000000001</v>
       </c>
-      <c r="AL7" s="10">
+      <c r="AL7" s="8">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="AM7" s="12">
+      <c r="AM7" s="10">
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="8" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="34">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="31">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11">
-        <v>1</v>
-      </c>
-      <c r="K8" s="11">
-        <v>1</v>
-      </c>
-      <c r="L8" s="11">
-        <v>1</v>
-      </c>
-      <c r="M8" s="9">
-        <v>1</v>
-      </c>
-      <c r="N8" s="34">
-        <v>1</v>
-      </c>
-      <c r="O8" s="10">
-        <v>1</v>
-      </c>
-      <c r="P8" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="30">
+      <c r="B8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="24">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="21">
         <v>0.5</v>
       </c>
-      <c r="R8" s="10">
-        <v>1</v>
-      </c>
-      <c r="S8" s="10">
+      <c r="R8" s="8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="8">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8" s="8">
         <v>6.25E-2</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="9">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="V8" s="9">
-        <v>1</v>
-      </c>
-      <c r="W8" s="34">
-        <v>1</v>
-      </c>
-      <c r="X8" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="34">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="30">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="10">
+      <c r="V8" s="7">
+        <v>1</v>
+      </c>
+      <c r="W8" s="24">
+        <v>1</v>
+      </c>
+      <c r="X8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="8">
         <v>0.24729999999999999</v>
       </c>
-      <c r="AL8" s="10">
+      <c r="AL8" s="8">
         <v>0.32850000000000001</v>
       </c>
-      <c r="AM8" s="12">
+      <c r="AM8" s="10">
         <v>0.49459999999999998</v>
       </c>
     </row>
     <row r="9" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="34">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="31">
-        <v>1</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1</v>
-      </c>
-      <c r="J9" s="11">
-        <v>1</v>
-      </c>
-      <c r="K9" s="11">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11">
-        <v>1</v>
-      </c>
-      <c r="M9" s="9">
+      <c r="B9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
         <v>0.2</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="24">
         <v>0.33329999999999999</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="8">
         <v>0.33329999999999999</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="8">
         <v>0.2</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="21">
         <v>0.25</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="8">
         <v>0.25</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="8">
         <v>0.2</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="8">
         <v>0.25</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9" s="9">
         <v>0.25</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="7">
         <v>0</v>
       </c>
-      <c r="W9" s="34">
-        <v>1</v>
-      </c>
-      <c r="X9" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="10">
+      <c r="W9" s="24">
+        <v>1</v>
+      </c>
+      <c r="X9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="8">
         <v>0</v>
       </c>
-      <c r="Z9" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="10">
+      <c r="Z9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="8">
         <v>0</v>
       </c>
-      <c r="AC9" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="23">
+      <c r="AC9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="15">
         <v>0</v>
       </c>
-      <c r="AF9" s="34">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="10">
+      <c r="AF9" s="24">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="8">
         <v>0.5</v>
       </c>
-      <c r="AH9" s="10">
+      <c r="AH9" s="8">
         <v>0</v>
       </c>
-      <c r="AI9" s="30">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="10">
+      <c r="AI9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="8">
         <v>0.5</v>
       </c>
-      <c r="AK9" s="10">
+      <c r="AK9" s="8">
         <v>0</v>
       </c>
-      <c r="AL9" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="12">
+      <c r="AL9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="10">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="34">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="30">
-        <v>1</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1</v>
-      </c>
-      <c r="J10" s="11">
-        <v>1</v>
-      </c>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11">
-        <v>1</v>
-      </c>
-      <c r="M10" s="9">
-        <v>1</v>
-      </c>
-      <c r="N10" s="34">
-        <v>1</v>
-      </c>
-      <c r="O10" s="10">
-        <v>1</v>
-      </c>
-      <c r="P10" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="30">
-        <v>1</v>
-      </c>
-      <c r="R10" s="10">
-        <v>1</v>
-      </c>
-      <c r="S10" s="10">
-        <v>1</v>
-      </c>
-      <c r="T10" s="10">
-        <v>1</v>
-      </c>
-      <c r="U10" s="11">
-        <v>1</v>
-      </c>
-      <c r="V10" s="9">
+      <c r="B10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="21">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="24">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>1</v>
+      </c>
+      <c r="R10" s="8">
+        <v>1</v>
+      </c>
+      <c r="S10" s="8">
+        <v>1</v>
+      </c>
+      <c r="T10" s="8">
+        <v>1</v>
+      </c>
+      <c r="U10" s="9">
+        <v>1</v>
+      </c>
+      <c r="V10" s="7">
         <v>0</v>
       </c>
-      <c r="W10" s="34">
-        <v>1</v>
-      </c>
-      <c r="X10" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="10">
+      <c r="W10" s="24">
+        <v>1</v>
+      </c>
+      <c r="X10" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="8">
         <v>0</v>
       </c>
-      <c r="Z10" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="10">
+      <c r="Z10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="8">
         <v>0</v>
       </c>
-      <c r="AC10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="23">
+      <c r="AC10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="15">
         <v>0</v>
       </c>
-      <c r="AF10" s="34">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="10">
+      <c r="AF10" s="24">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="8">
         <v>0.94740000000000002</v>
       </c>
-      <c r="AH10" s="10">
+      <c r="AH10" s="8">
         <v>0</v>
       </c>
-      <c r="AI10" s="30">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="10">
+      <c r="AI10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="8">
         <v>0.94740000000000002</v>
       </c>
-      <c r="AK10" s="10">
+      <c r="AK10" s="8">
         <v>0</v>
       </c>
-      <c r="AL10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="12">
+      <c r="AL10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="10">
         <v>0.94740000000000002</v>
       </c>
     </row>
     <row r="11" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B11" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="34">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="30">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="9">
+      <c r="B11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="21">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
         <v>0.5</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="24">
         <v>0.5</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="8">
         <v>0.5</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="8">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="21">
         <v>0.33329999999999999</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="8">
         <v>0.33329999999999999</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="8">
         <v>0.33329999999999999</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="8">
         <v>0.33329999999999999</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="V11" s="9">
-        <v>1</v>
-      </c>
-      <c r="W11" s="34">
-        <v>1</v>
-      </c>
-      <c r="X11" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="23">
+      <c r="V11" s="7">
+        <v>1</v>
+      </c>
+      <c r="W11" s="24">
+        <v>1</v>
+      </c>
+      <c r="X11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="15">
         <v>0.5</v>
       </c>
-      <c r="AF11" s="34">
+      <c r="AF11" s="24">
         <v>0.5</v>
       </c>
-      <c r="AG11" s="10">
+      <c r="AG11" s="8">
         <v>0.5</v>
       </c>
-      <c r="AH11" s="10">
+      <c r="AH11" s="8">
         <v>0.5</v>
       </c>
-      <c r="AI11" s="30">
+      <c r="AI11" s="21">
         <v>0.5</v>
       </c>
-      <c r="AJ11" s="10">
+      <c r="AJ11" s="8">
         <v>0.5</v>
       </c>
-      <c r="AK11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="12">
+      <c r="AK11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="10">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="42">
+        <v>1</v>
+      </c>
+      <c r="E12" s="43">
+        <v>1</v>
+      </c>
+      <c r="F12" s="44">
+        <v>1</v>
+      </c>
+      <c r="G12" s="44">
+        <v>1</v>
+      </c>
+      <c r="H12" s="45">
+        <v>1</v>
+      </c>
+      <c r="I12" s="46">
+        <v>1</v>
+      </c>
+      <c r="J12" s="46">
+        <v>1</v>
+      </c>
+      <c r="K12" s="46">
+        <v>1</v>
+      </c>
+      <c r="L12" s="46">
+        <v>1</v>
+      </c>
+      <c r="M12" s="42">
+        <v>1</v>
+      </c>
+      <c r="N12" s="43">
+        <v>1</v>
+      </c>
+      <c r="O12" s="44">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="P12" s="44">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="Q12" s="45">
+        <v>1.15E-2</v>
+      </c>
+      <c r="R12" s="44">
+        <v>1.14E-2</v>
+      </c>
+      <c r="S12" s="44">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="T12" s="44">
+        <v>1.15E-2</v>
+      </c>
+      <c r="U12" s="46">
+        <v>1.14E-2</v>
+      </c>
+      <c r="V12" s="42">
+        <v>1</v>
+      </c>
+      <c r="W12" s="43">
+        <v>1</v>
+      </c>
+      <c r="X12" s="44">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="44">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="44">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="44">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="47">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="43">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="AG12" s="44">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AH12" s="44">
+        <v>1.77E-2</v>
+      </c>
+      <c r="AI12" s="45">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AJ12" s="44">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AK12" s="44">
+        <v>1.77E-2</v>
+      </c>
+      <c r="AL12" s="44">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AM12" s="47">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="49">
+        <f>AVERAGE(D4:D12)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E13" s="50">
+        <f t="shared" ref="E13:AL13" si="0">AVERAGE(E4:E12)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="H13" s="52">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.94074444444444438</v>
+      </c>
+      <c r="K13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.94074444444444438</v>
+      </c>
+      <c r="L13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.94074444444444438</v>
+      </c>
+      <c r="M13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="N13" s="50">
+        <f t="shared" si="0"/>
+        <v>0.65370000000000006</v>
+      </c>
+      <c r="O13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.57962222222222226</v>
+      </c>
+      <c r="P13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.42848888888888886</v>
+      </c>
+      <c r="Q13" s="52">
+        <f t="shared" si="0"/>
+        <v>0.43101111111111107</v>
+      </c>
+      <c r="R13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.4201333333333333</v>
+      </c>
+      <c r="S13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.25935555555555556</v>
+      </c>
+      <c r="T13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.26317777777777773</v>
+      </c>
+      <c r="U13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.25148888888888887</v>
+      </c>
+      <c r="V13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W13" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z13" s="52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC13" s="51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.44477777777777777</v>
+      </c>
+      <c r="AF13" s="50">
+        <f t="shared" si="0"/>
+        <v>0.63263333333333327</v>
+      </c>
+      <c r="AG13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.5184333333333333</v>
+      </c>
+      <c r="AH13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.33563333333333334</v>
+      </c>
+      <c r="AI13" s="52">
+        <f t="shared" si="0"/>
+        <v>0.60941111111111113</v>
+      </c>
+      <c r="AJ13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.5082888888888889</v>
+      </c>
+      <c r="AK13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.25234444444444448</v>
+      </c>
+      <c r="AL13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.53514444444444442</v>
+      </c>
+      <c r="AM13" s="53">
+        <f>AVERAGE(AM4:AM12)</f>
+        <v>0.39692222222222218</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="64" x14ac:dyDescent="0.2">
+      <c r="B17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="16"/>
-    </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="D13" s="36">
-        <f>AVERAGE(D4:D12)</f>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="E13" s="36">
-        <f t="shared" ref="E13:AM13" si="0">AVERAGE(E4:E12)</f>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="F13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="G13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="H13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="I13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="J13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.93333749999999993</v>
-      </c>
-      <c r="K13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.93333749999999993</v>
-      </c>
-      <c r="L13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.93333749999999993</v>
-      </c>
-      <c r="M13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.59375</v>
-      </c>
-      <c r="N13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.61041250000000002</v>
-      </c>
-      <c r="O13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.61041250000000002</v>
-      </c>
-      <c r="P13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.48059999999999997</v>
-      </c>
-      <c r="Q13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.48344999999999999</v>
-      </c>
-      <c r="R13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.47122499999999995</v>
-      </c>
-      <c r="S13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.290325</v>
-      </c>
-      <c r="T13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.2946375</v>
-      </c>
-      <c r="U13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.28149999999999997</v>
-      </c>
-      <c r="V13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="W13" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X13" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="Z13" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AA13" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="AC13" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD13" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.37537500000000001</v>
-      </c>
-      <c r="AF13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.69466249999999996</v>
-      </c>
-      <c r="AG13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.5753625</v>
-      </c>
-      <c r="AH13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.37537500000000001</v>
-      </c>
-      <c r="AI13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.6852125</v>
-      </c>
-      <c r="AJ13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.57174999999999998</v>
-      </c>
-      <c r="AK13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.28167500000000001</v>
-      </c>
-      <c r="AL13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.60166249999999999</v>
-      </c>
-      <c r="AM13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.44646249999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="B17" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F18" t="s">
@@ -2459,19 +2539,30 @@
       <c r="H18" t="s">
         <v>7</v>
       </c>
+      <c r="M18" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39">
+        <v>2300</v>
+      </c>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2" t="s">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2479,19 +2570,30 @@
       <c r="H19" t="s">
         <v>7</v>
       </c>
+      <c r="M19" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39">
+        <v>10180</v>
+      </c>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2499,16 +2601,27 @@
       <c r="H20" t="s">
         <v>7</v>
       </c>
+      <c r="M20" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39">
+        <v>4838568</v>
+      </c>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>35</v>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F21" t="s">
         <v>4</v>
@@ -2519,19 +2632,30 @@
       <c r="H21" t="s">
         <v>7</v>
       </c>
+      <c r="M21" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>35</v>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2540,18 +2664,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>35</v>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2560,15 +2684,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="2" t="s">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>36</v>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
@@ -2580,18 +2704,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>36</v>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2600,18 +2724,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>36</v>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2621,7 +2745,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="17">
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="M2:U2"/>
     <mergeCell ref="D1:U1"/>
@@ -2629,66 +2762,10 @@
     <mergeCell ref="V1:AM1"/>
     <mergeCell ref="V2:AD2"/>
     <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="P17:S17"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5">
-        <v>4838568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="P21" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="B1:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauropelucchi/git/hammerdataproject/hammer-colombo/fuzzy-examples-set/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauropelucchi/Desktop/My_Home/Git/hammerdataproject/hammer-colombo/fuzzy-examples-set/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1200" windowWidth="25460" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="1520" yWindow="460" windowWidth="25460" windowHeight="13600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
+    <sheet name="baseline_1" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="66">
   <si>
     <t>th_krm</t>
   </si>
@@ -183,6 +184,48 @@
   </si>
   <si>
     <t>9_fuzzy</t>
+  </si>
+  <si>
+    <t>nutrition</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>wasting2sd</t>
+  </si>
+  <si>
+    <t>stuting2sd</t>
+  </si>
+  <si>
+    <t>underweight3sd</t>
+  </si>
+  <si>
+    <t>civilians</t>
+  </si>
+  <si>
+    <t>spouse2age</t>
+  </si>
+  <si>
+    <t>spouse1age</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>wateravailability</t>
+  </si>
+  <si>
+    <t>functionalstatus</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>district</t>
   </si>
 </sst>
 </file>
@@ -702,7 +745,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -732,6 +775,27 @@
     <xf numFmtId="10" fontId="6" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,27 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
@@ -1073,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,92 +1138,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="35" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="37"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="52"/>
     </row>
     <row r="2" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="27" t="s">
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="30" t="s">
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="38"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="53"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
@@ -2232,266 +2276,266 @@
       <c r="C12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="42">
-        <v>1</v>
-      </c>
-      <c r="E12" s="43">
-        <v>1</v>
-      </c>
-      <c r="F12" s="44">
-        <v>1</v>
-      </c>
-      <c r="G12" s="44">
-        <v>1</v>
-      </c>
-      <c r="H12" s="45">
-        <v>1</v>
-      </c>
-      <c r="I12" s="46">
-        <v>1</v>
-      </c>
-      <c r="J12" s="46">
-        <v>1</v>
-      </c>
-      <c r="K12" s="46">
-        <v>1</v>
-      </c>
-      <c r="L12" s="46">
-        <v>1</v>
-      </c>
-      <c r="M12" s="42">
-        <v>1</v>
-      </c>
-      <c r="N12" s="43">
-        <v>1</v>
-      </c>
-      <c r="O12" s="44">
+      <c r="D12" s="27">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="29">
+        <v>1</v>
+      </c>
+      <c r="G12" s="29">
+        <v>1</v>
+      </c>
+      <c r="H12" s="30">
+        <v>1</v>
+      </c>
+      <c r="I12" s="31">
+        <v>1</v>
+      </c>
+      <c r="J12" s="31">
+        <v>1</v>
+      </c>
+      <c r="K12" s="31">
+        <v>1</v>
+      </c>
+      <c r="L12" s="31">
+        <v>1</v>
+      </c>
+      <c r="M12" s="27">
+        <v>1</v>
+      </c>
+      <c r="N12" s="28">
+        <v>1</v>
+      </c>
+      <c r="O12" s="29">
         <v>0.33329999999999999</v>
       </c>
-      <c r="P12" s="44">
+      <c r="P12" s="29">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="Q12" s="45">
+      <c r="Q12" s="30">
         <v>1.15E-2</v>
       </c>
-      <c r="R12" s="44">
+      <c r="R12" s="29">
         <v>1.14E-2</v>
       </c>
-      <c r="S12" s="44">
+      <c r="S12" s="29">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="T12" s="44">
+      <c r="T12" s="29">
         <v>1.15E-2</v>
       </c>
-      <c r="U12" s="46">
+      <c r="U12" s="31">
         <v>1.14E-2</v>
       </c>
-      <c r="V12" s="42">
-        <v>1</v>
-      </c>
-      <c r="W12" s="43">
-        <v>1</v>
-      </c>
-      <c r="X12" s="44">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="44">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="45">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="44">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="44">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="44">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="47">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="48">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="43">
+      <c r="V12" s="27">
+        <v>1</v>
+      </c>
+      <c r="W12" s="28">
+        <v>1</v>
+      </c>
+      <c r="X12" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="29">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="32">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="33">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="28">
         <v>0.13639999999999999</v>
       </c>
-      <c r="AG12" s="44">
+      <c r="AG12" s="29">
         <v>6.3E-2</v>
       </c>
-      <c r="AH12" s="44">
+      <c r="AH12" s="29">
         <v>1.77E-2</v>
       </c>
-      <c r="AI12" s="45">
+      <c r="AI12" s="30">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AJ12" s="44">
+      <c r="AJ12" s="29">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="AK12" s="44">
+      <c r="AK12" s="29">
         <v>1.77E-2</v>
       </c>
-      <c r="AL12" s="44">
+      <c r="AL12" s="29">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AM12" s="47">
+      <c r="AM12" s="32">
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="13" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="49">
+      <c r="D13" s="34">
         <f>AVERAGE(D4:D12)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="35">
         <f t="shared" ref="E13:AL13" si="0">AVERAGE(E4:E12)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="36">
         <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="36">
         <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="37">
         <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="36">
         <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="36">
         <f t="shared" si="0"/>
         <v>0.94074444444444438</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="36">
         <f t="shared" si="0"/>
         <v>0.94074444444444438</v>
       </c>
-      <c r="L13" s="51">
+      <c r="L13" s="36">
         <f t="shared" si="0"/>
         <v>0.94074444444444438</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="36">
         <f t="shared" si="0"/>
         <v>0.63888888888888884</v>
       </c>
-      <c r="N13" s="50">
+      <c r="N13" s="35">
         <f t="shared" si="0"/>
         <v>0.65370000000000006</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="36">
         <f t="shared" si="0"/>
         <v>0.57962222222222226</v>
       </c>
-      <c r="P13" s="51">
+      <c r="P13" s="36">
         <f t="shared" si="0"/>
         <v>0.42848888888888886</v>
       </c>
-      <c r="Q13" s="52">
+      <c r="Q13" s="37">
         <f t="shared" si="0"/>
         <v>0.43101111111111107</v>
       </c>
-      <c r="R13" s="51">
+      <c r="R13" s="36">
         <f t="shared" si="0"/>
         <v>0.4201333333333333</v>
       </c>
-      <c r="S13" s="51">
+      <c r="S13" s="36">
         <f t="shared" si="0"/>
         <v>0.25935555555555556</v>
       </c>
-      <c r="T13" s="51">
+      <c r="T13" s="36">
         <f t="shared" si="0"/>
         <v>0.26317777777777773</v>
       </c>
-      <c r="U13" s="51">
+      <c r="U13" s="36">
         <f t="shared" si="0"/>
         <v>0.25148888888888887</v>
       </c>
-      <c r="V13" s="51">
+      <c r="V13" s="36">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="W13" s="50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X13" s="51">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y13" s="51">
+      <c r="W13" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="36">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Z13" s="52">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AA13" s="51">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB13" s="51">
+      <c r="Z13" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="36">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AC13" s="51">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD13" s="51">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE13" s="51">
+      <c r="AC13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="36">
         <f t="shared" si="0"/>
         <v>0.44477777777777777</v>
       </c>
-      <c r="AF13" s="50">
+      <c r="AF13" s="35">
         <f t="shared" si="0"/>
         <v>0.63263333333333327</v>
       </c>
-      <c r="AG13" s="51">
+      <c r="AG13" s="36">
         <f t="shared" si="0"/>
         <v>0.5184333333333333</v>
       </c>
-      <c r="AH13" s="51">
+      <c r="AH13" s="36">
         <f t="shared" si="0"/>
         <v>0.33563333333333334</v>
       </c>
-      <c r="AI13" s="52">
+      <c r="AI13" s="37">
         <f t="shared" si="0"/>
         <v>0.60941111111111113</v>
       </c>
-      <c r="AJ13" s="51">
+      <c r="AJ13" s="36">
         <f t="shared" si="0"/>
         <v>0.5082888888888889</v>
       </c>
-      <c r="AK13" s="51">
+      <c r="AK13" s="36">
         <f t="shared" si="0"/>
         <v>0.25234444444444448</v>
       </c>
-      <c r="AL13" s="51">
+      <c r="AL13" s="36">
         <f t="shared" si="0"/>
         <v>0.53514444444444442</v>
       </c>
-      <c r="AM13" s="53">
+      <c r="AM13" s="38">
         <f>AVERAGE(AM4:AM12)</f>
         <v>0.39692222222222218</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="64" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="34"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2510,15 +2554,15 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39" t="s">
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
@@ -2539,17 +2583,17 @@
       <c r="H18" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="M18" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39">
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41">
         <v>2300</v>
       </c>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
@@ -2570,17 +2614,17 @@
       <c r="H19" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="M19" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39">
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41">
         <v>10180</v>
       </c>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
@@ -2601,17 +2645,17 @@
       <c r="H20" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="39" t="s">
+      <c r="M20" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39">
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41">
         <v>4838568</v>
       </c>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
@@ -2632,17 +2676,17 @@
       <c r="H21" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="40" t="s">
+      <c r="M21" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="41" t="s">
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
@@ -2746,27 +2790,1545 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="V1:AM1"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
     <mergeCell ref="M21:O21"/>
     <mergeCell ref="P21:S21"/>
     <mergeCell ref="P19:S19"/>
     <mergeCell ref="P20:S20"/>
     <mergeCell ref="P18:S18"/>
     <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="V1:AM1"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="P17:S17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P21" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AM27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="C19:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="52"/>
+    </row>
+    <row r="2" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="53"/>
+    </row>
+    <row r="3" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM3" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.1333</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0.1333</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.1333</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.1333</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.1333</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.1333</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="N4" s="24">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="S4" s="8">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="T4" s="8">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="U4" s="9">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="V4" s="7">
+        <v>1</v>
+      </c>
+      <c r="W4" s="24">
+        <v>1</v>
+      </c>
+      <c r="X4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="AF4" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AI4" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="AM4" s="10">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1.15E-2</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="8">
+        <v>1.15E-2</v>
+      </c>
+      <c r="S5" s="8">
+        <v>1.14E-2</v>
+      </c>
+      <c r="T5" s="8">
+        <v>1.15E-2</v>
+      </c>
+      <c r="U5" s="9">
+        <v>1.15E-2</v>
+      </c>
+      <c r="V5" s="7">
+        <v>1</v>
+      </c>
+      <c r="W5" s="24">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="15">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="AF5" s="24">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="AI5" s="21">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="22">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="N6" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="24">
+        <v>1</v>
+      </c>
+      <c r="X6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="24">
+        <v>0.51429999999999998</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>0.51429999999999998</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="21">
+        <v>0.4854</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>0.4854</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>0.4854</v>
+      </c>
+      <c r="AM6" s="10">
+        <v>0.4854</v>
+      </c>
+    </row>
+    <row r="7" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.1333</v>
+      </c>
+      <c r="N7" s="24">
+        <v>0.1333</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.1333</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0.1333</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>0.1176</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0.1333</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.1333</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0.1176</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0.1333</v>
+      </c>
+      <c r="V7" s="7">
+        <v>1</v>
+      </c>
+      <c r="W7" s="24">
+        <v>1</v>
+      </c>
+      <c r="X7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="15">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="AF7" s="24">
+        <v>0.1439</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="AI7" s="21">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>9.7199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="24">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="8">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="T8" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="U8" s="9">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="V8" s="7">
+        <v>1</v>
+      </c>
+      <c r="W8" s="24">
+        <v>1</v>
+      </c>
+      <c r="X8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>0.24729999999999999</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="AM8" s="10">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N9" s="24">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="24">
+        <v>1</v>
+      </c>
+      <c r="X9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="24">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="21">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="24">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>1</v>
+      </c>
+      <c r="R10" s="8">
+        <v>1</v>
+      </c>
+      <c r="S10" s="8">
+        <v>1</v>
+      </c>
+      <c r="T10" s="8">
+        <v>1</v>
+      </c>
+      <c r="U10" s="9">
+        <v>1</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10" s="24">
+        <v>1</v>
+      </c>
+      <c r="X10" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="24">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="10">
+        <v>0.94740000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="21">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="V11" s="7">
+        <v>1</v>
+      </c>
+      <c r="W11" s="24">
+        <v>1</v>
+      </c>
+      <c r="X11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="AF11" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AI11" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="27">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="29">
+        <v>1</v>
+      </c>
+      <c r="G12" s="29">
+        <v>1</v>
+      </c>
+      <c r="H12" s="30">
+        <v>1</v>
+      </c>
+      <c r="I12" s="31">
+        <v>1</v>
+      </c>
+      <c r="J12" s="31">
+        <v>1</v>
+      </c>
+      <c r="K12" s="31">
+        <v>1</v>
+      </c>
+      <c r="L12" s="31">
+        <v>1</v>
+      </c>
+      <c r="M12" s="27">
+        <v>1</v>
+      </c>
+      <c r="N12" s="28">
+        <v>1</v>
+      </c>
+      <c r="O12" s="29">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="P12" s="29">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>1.15E-2</v>
+      </c>
+      <c r="R12" s="29">
+        <v>1.14E-2</v>
+      </c>
+      <c r="S12" s="29">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="T12" s="29">
+        <v>1.15E-2</v>
+      </c>
+      <c r="U12" s="31">
+        <v>1.14E-2</v>
+      </c>
+      <c r="V12" s="27">
+        <v>1</v>
+      </c>
+      <c r="W12" s="28">
+        <v>1</v>
+      </c>
+      <c r="X12" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="29">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="32">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="33">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="28">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="AG12" s="29">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AH12" s="29">
+        <v>1.77E-2</v>
+      </c>
+      <c r="AI12" s="30">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AJ12" s="29">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AK12" s="29">
+        <v>1.77E-2</v>
+      </c>
+      <c r="AL12" s="29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AM12" s="32">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="34">
+        <f>AVERAGE(D4:D12)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E13" s="35">
+        <f t="shared" ref="E13:AL13" si="0">AVERAGE(E4:E12)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="H13" s="37">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.94074444444444438</v>
+      </c>
+      <c r="K13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.94074444444444438</v>
+      </c>
+      <c r="L13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.94074444444444438</v>
+      </c>
+      <c r="M13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="N13" s="35">
+        <f t="shared" si="0"/>
+        <v>0.65370000000000006</v>
+      </c>
+      <c r="O13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.57962222222222226</v>
+      </c>
+      <c r="P13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.42848888888888886</v>
+      </c>
+      <c r="Q13" s="37">
+        <f t="shared" si="0"/>
+        <v>0.43101111111111107</v>
+      </c>
+      <c r="R13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.4201333333333333</v>
+      </c>
+      <c r="S13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.25935555555555556</v>
+      </c>
+      <c r="T13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.26317777777777773</v>
+      </c>
+      <c r="U13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.25148888888888887</v>
+      </c>
+      <c r="V13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W13" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z13" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.44477777777777777</v>
+      </c>
+      <c r="AF13" s="35">
+        <f t="shared" si="0"/>
+        <v>0.63263333333333327</v>
+      </c>
+      <c r="AG13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5184333333333333</v>
+      </c>
+      <c r="AH13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.33563333333333334</v>
+      </c>
+      <c r="AI13" s="37">
+        <f t="shared" si="0"/>
+        <v>0.60941111111111113</v>
+      </c>
+      <c r="AJ13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5082888888888889</v>
+      </c>
+      <c r="AK13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.25234444444444448</v>
+      </c>
+      <c r="AL13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.53514444444444442</v>
+      </c>
+      <c r="AM13" s="38">
+        <f>AVERAGE(AM4:AM12)</f>
+        <v>0.39692222222222218</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="54"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="54"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="54"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="54"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="V1:AM1"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="460" windowWidth="25460" windowHeight="13600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="25460" windowHeight="13600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -787,13 +787,20 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="10" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -811,28 +818,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
@@ -1138,92 +1138,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="50" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="52"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="44"/>
     </row>
     <row r="2" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="42" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="45" t="s">
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="53"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="50"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
@@ -2532,10 +2532,10 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="64" x14ac:dyDescent="0.2">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2554,15 +2554,15 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41" t="s">
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
@@ -2583,17 +2583,17 @@
       <c r="H18" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="41" t="s">
+      <c r="M18" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41">
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51">
         <v>2300</v>
       </c>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
@@ -2614,17 +2614,17 @@
       <c r="H19" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="41" t="s">
+      <c r="M19" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41">
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51">
         <v>10180</v>
       </c>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
@@ -2645,17 +2645,17 @@
       <c r="H20" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="41" t="s">
+      <c r="M20" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41">
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51">
         <v>4838568</v>
       </c>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
@@ -2676,17 +2676,17 @@
       <c r="H21" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="39" t="s">
+      <c r="M21" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="40" t="s">
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
@@ -2790,13 +2790,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="V1:AM1"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="M17:O17"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="D2:L2"/>
@@ -2807,6 +2800,13 @@
     <mergeCell ref="P20:S20"/>
     <mergeCell ref="P18:S18"/>
     <mergeCell ref="M18:O18"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="V1:AM1"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="M17:O17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P21" r:id="rId1"/>
@@ -2820,7 +2820,7 @@
   <dimension ref="B1:AM27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="C19:F19"/>
+      <selection activeCell="C17" sqref="C17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2830,92 +2830,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="50" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="52"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="44"/>
     </row>
     <row r="2" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="42" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="45" t="s">
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="53"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="50"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
@@ -4227,19 +4227,19 @@
       <c r="B17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="39" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4247,19 +4247,19 @@
       <c r="B18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="39" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4267,16 +4267,16 @@
       <c r="B19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="39" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4289,13 +4289,13 @@
       <c r="B21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="54"/>
+      <c r="C21" s="39"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="39"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
@@ -4306,19 +4306,19 @@
       <c r="B24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="39"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="39"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C26" s="54"/>
+      <c r="C26" s="39"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C27" s="54"/>
+      <c r="C27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="25460" windowHeight="13600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1740" yWindow="460" windowWidth="25460" windowHeight="13600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="103">
   <si>
     <t>th_krm</t>
   </si>
@@ -192,24 +192,6 @@
     <t>county</t>
   </si>
   <si>
-    <t>wasting2sd</t>
-  </si>
-  <si>
-    <t>stuting2sd</t>
-  </si>
-  <si>
-    <t>underweight3sd</t>
-  </si>
-  <si>
-    <t>civilians</t>
-  </si>
-  <si>
-    <t>spouse2age</t>
-  </si>
-  <si>
-    <t>spouse1age</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -219,13 +201,142 @@
     <t>wateravailability</t>
   </si>
   <si>
-    <t>functionalstatus</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
     <t>district</t>
+  </si>
+  <si>
+    <t>fixed terms for google search</t>
+  </si>
+  <si>
+    <t>open data</t>
+  </si>
+  <si>
+    <t>africa</t>
+  </si>
+  <si>
+    <t>teachers</t>
+  </si>
+  <si>
+    <t>noofteachers</t>
+  </si>
+  <si>
+    <t>water_points</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>consumptionpercapitalcd</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>terms for google search</t>
+  </si>
+  <si>
+    <t>nationale</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>kgs</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>suburb</t>
+  </si>
+  <si>
+    <t>contactnumber</t>
+  </si>
+  <si>
+    <t>contactperson</t>
+  </si>
+  <si>
+    <t>crisiscounsellingline</t>
+  </si>
+  <si>
+    <t>protest</t>
+  </si>
+  <si>
+    <t>startdate</t>
+  </si>
+  <si>
+    <t>coordinates</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>violentornonviolent</t>
+  </si>
+  <si>
+    <t>reasonforprotest</t>
+  </si>
+  <si>
+    <t>enddate</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>proportional</t>
+  </si>
+  <si>
+    <t>equitable</t>
+  </si>
+  <si>
+    <t>underweight</t>
+  </si>
+  <si>
+    <t>stuting</t>
+  </si>
+  <si>
+    <t>wasting</t>
+  </si>
+  <si>
+    <t>turkana</t>
+  </si>
+  <si>
+    <t>mombasa</t>
+  </si>
+  <si>
+    <t>nairobi</t>
+  </si>
+  <si>
+    <t>civilunions</t>
+  </si>
+  <si>
+    <t>spouse1age 35</t>
+  </si>
+  <si>
+    <t>spouse2age 35</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>functional-status yes</t>
+  </si>
+  <si>
+    <t>functional-status functional</t>
+  </si>
+  <si>
+    <t>schooltype public</t>
   </si>
 </sst>
 </file>
@@ -745,7 +856,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -788,19 +899,7 @@
     <xf numFmtId="10" fontId="10" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,12 +917,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -831,6 +924,27 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1138,92 +1252,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="42" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="44"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="53"/>
     </row>
     <row r="2" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="45" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="48" t="s">
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="50"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="54"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
@@ -2532,10 +2646,10 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="64" x14ac:dyDescent="0.2">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2554,15 +2668,15 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51" t="s">
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
@@ -2583,17 +2697,17 @@
       <c r="H18" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="51" t="s">
+      <c r="M18" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51">
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40">
         <v>2300</v>
       </c>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
@@ -2614,17 +2728,17 @@
       <c r="H19" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="51" t="s">
+      <c r="M19" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51">
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40">
         <v>10180</v>
       </c>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
@@ -2645,17 +2759,17 @@
       <c r="H20" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="51" t="s">
+      <c r="M20" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51">
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40">
         <v>4838568</v>
       </c>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
@@ -2676,17 +2790,17 @@
       <c r="H21" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="53" t="s">
+      <c r="M21" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="54" t="s">
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
@@ -2790,6 +2904,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="V1:AM1"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="M17:O17"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="D2:L2"/>
@@ -2800,13 +2921,6 @@
     <mergeCell ref="P20:S20"/>
     <mergeCell ref="P18:S18"/>
     <mergeCell ref="M18:O18"/>
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="V1:AM1"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="M17:O17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P21" r:id="rId1"/>
@@ -2817,10 +2931,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AM27"/>
+  <dimension ref="B1:AM28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2830,92 +2944,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="42" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="44"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="53"/>
     </row>
     <row r="2" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="45" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="48" t="s">
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="50"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="54"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
@@ -4223,105 +4337,286 @@
         <v>0.39692222222222218</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="C16" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="F17" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>55</v>
-      </c>
       <c r="G17" s="39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="39">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="39"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="39"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="39"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="39"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C26" s="39"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C27" s="39"/>
+      <c r="E27" s="39"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E28" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:L16"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="V1:AM1"/>
     <mergeCell ref="D2:L2"/>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="109">
   <si>
     <t>th_krm</t>
   </si>
@@ -222,15 +222,6 @@
     <t>noofteachers</t>
   </si>
   <si>
-    <t>water_points</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>consumptionpercapitalcd</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -240,21 +231,12 @@
     <t>terms for google search</t>
   </si>
   <si>
-    <t>nationale</t>
-  </si>
-  <si>
     <t>commodity</t>
   </si>
   <si>
-    <t>kgs</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
-    <t>women</t>
-  </si>
-  <si>
     <t>services</t>
   </si>
   <si>
@@ -273,9 +255,6 @@
     <t>protest</t>
   </si>
   <si>
-    <t>startdate</t>
-  </si>
-  <si>
     <t>coordinates</t>
   </si>
   <si>
@@ -337,6 +316,45 @@
   </si>
   <si>
     <t>schooltype public</t>
+  </si>
+  <si>
+    <t>consumption_per_capita</t>
+  </si>
+  <si>
+    <t>waterconsumption</t>
+  </si>
+  <si>
+    <t>date 31-12-2013</t>
+  </si>
+  <si>
+    <t>national-exports</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>Orchids</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>womenemergency</t>
+  </si>
+  <si>
+    <t>24 hour intervention</t>
+  </si>
+  <si>
+    <t>startdate end date</t>
+  </si>
+  <si>
+    <t>xenophobia</t>
+  </si>
+  <si>
+    <t>year 2015</t>
   </si>
 </sst>
 </file>
@@ -2934,7 +2952,7 @@
   <dimension ref="B1:AM28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4343,7 +4361,7 @@
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
@@ -4353,7 +4371,7 @@
       <c r="K16" s="55"/>
       <c r="L16" s="55"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
         <v>30</v>
       </c>
@@ -4370,25 +4388,25 @@
         <v>53</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
         <v>31</v>
       </c>
@@ -4399,13 +4417,13 @@
         <v>61</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>54</v>
@@ -4417,7 +4435,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
         <v>32</v>
       </c>
@@ -4431,22 +4449,22 @@
         <v>56</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G19" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I19" s="39" t="s">
         <v>58</v>
       </c>
       <c r="J19" s="39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>33</v>
       </c>
@@ -4460,7 +4478,7 @@
         <v>62</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>63</v>
@@ -4469,7 +4487,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
         <v>42</v>
       </c>
@@ -4480,22 +4498,22 @@
         <v>61</v>
       </c>
       <c r="E21" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="I21" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
         <v>48</v>
       </c>
@@ -4506,16 +4524,22 @@
         <v>61</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
         <v>49</v>
       </c>
@@ -4526,28 +4550,34 @@
         <v>61</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F23" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" s="39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
         <v>50</v>
       </c>
@@ -4558,28 +4588,31 @@
         <v>61</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J24" s="39" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K24" s="39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
         <v>51</v>
       </c>
@@ -4590,27 +4623,27 @@
         <v>61</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C26" s="39"/>
       <c r="E26" s="39"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C27" s="39"/>
       <c r="E27" s="39"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E28" s="39"/>
     </row>
   </sheetData>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
-    <sheet name="baseline_1" sheetId="6" r:id="rId2"/>
+    <sheet name="baseline" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="111">
   <si>
     <t>th_krm</t>
   </si>
@@ -297,15 +297,6 @@
     <t>nairobi</t>
   </si>
   <si>
-    <t>civilunions</t>
-  </si>
-  <si>
-    <t>spouse1age 35</t>
-  </si>
-  <si>
-    <t>spouse2age 35</t>
-  </si>
-  <si>
     <t>position</t>
   </si>
   <si>
@@ -355,6 +346,21 @@
   </si>
   <si>
     <t>year 2015</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Google CSE</t>
+  </si>
+  <si>
+    <t>Apache Solr</t>
+  </si>
+  <si>
+    <t>civil unions</t>
+  </si>
+  <si>
+    <t>spouse age 35</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,8 +510,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -868,13 +880,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -965,6 +992,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="11" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
@@ -1249,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM26"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21:S21"/>
+    <sheetView topLeftCell="S1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="AK9" sqref="AK9:AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1793,7 +1842,7 @@
       <c r="AD6" s="10">
         <v>1</v>
       </c>
-      <c r="AE6" s="15">
+      <c r="AE6" s="66">
         <v>0</v>
       </c>
       <c r="AF6" s="24">
@@ -1802,7 +1851,7 @@
       <c r="AG6" s="8">
         <v>0.51429999999999998</v>
       </c>
-      <c r="AH6" s="8">
+      <c r="AH6" s="67">
         <v>0</v>
       </c>
       <c r="AI6" s="21">
@@ -1811,7 +1860,7 @@
       <c r="AJ6" s="8">
         <v>0.4854</v>
       </c>
-      <c r="AK6" s="8">
+      <c r="AK6" s="67">
         <v>0</v>
       </c>
       <c r="AL6" s="8">
@@ -2141,7 +2190,7 @@
       <c r="AD9" s="10">
         <v>1</v>
       </c>
-      <c r="AE9" s="15">
+      <c r="AE9" s="66">
         <v>0</v>
       </c>
       <c r="AF9" s="24">
@@ -2150,7 +2199,7 @@
       <c r="AG9" s="8">
         <v>0.5</v>
       </c>
-      <c r="AH9" s="8">
+      <c r="AH9" s="67">
         <v>0</v>
       </c>
       <c r="AI9" s="21">
@@ -2159,7 +2208,7 @@
       <c r="AJ9" s="8">
         <v>0.5</v>
       </c>
-      <c r="AK9" s="8">
+      <c r="AK9" s="67">
         <v>0</v>
       </c>
       <c r="AL9" s="8">
@@ -2257,7 +2306,7 @@
       <c r="AD10" s="10">
         <v>1</v>
       </c>
-      <c r="AE10" s="15">
+      <c r="AE10" s="66">
         <v>0</v>
       </c>
       <c r="AF10" s="24">
@@ -2266,7 +2315,7 @@
       <c r="AG10" s="8">
         <v>0.94740000000000002</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AH10" s="67">
         <v>0</v>
       </c>
       <c r="AI10" s="21">
@@ -2275,7 +2324,7 @@
       <c r="AJ10" s="8">
         <v>0.94740000000000002</v>
       </c>
-      <c r="AK10" s="8">
+      <c r="AK10" s="67">
         <v>0</v>
       </c>
       <c r="AL10" s="8">
@@ -2951,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2962,26 +3011,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
       <c r="V1" s="51" t="s">
         <v>47</v>
       </c>
@@ -3004,28 +3041,16 @@
       <c r="AM1" s="53"/>
     </row>
     <row r="2" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="46"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="54"/>
       <c r="V2" s="41" t="s">
         <v>13</v>
       </c>
@@ -3057,58 +3082,22 @@
         <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>41</v>
+        <v>106</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>108</v>
       </c>
       <c r="V3" s="16" t="s">
         <v>10</v>
@@ -3173,59 +3162,19 @@
         <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>0.1333</v>
-      </c>
-      <c r="E4" s="24">
-        <v>0.1333</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.1333</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.1333</v>
-      </c>
-      <c r="H4" s="21">
-        <v>0.1333</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.1333</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="N4" s="24">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="Q4" s="21">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="R4" s="8">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="S4" s="8">
-        <v>7.7899999999999997E-2</v>
-      </c>
-      <c r="T4" s="8">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="U4" s="9">
-        <v>8.2199999999999995E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E4" s="60">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="60">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10"/>
       <c r="V4" s="7">
         <v>1</v>
       </c>
@@ -3288,60 +3237,12 @@
       <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="24">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="22">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="P5" s="8">
-        <v>1.15E-2</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="8">
-        <v>1.15E-2</v>
-      </c>
-      <c r="S5" s="8">
-        <v>1.14E-2</v>
-      </c>
-      <c r="T5" s="8">
-        <v>1.15E-2</v>
-      </c>
-      <c r="U5" s="9">
-        <v>1.15E-2</v>
-      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="10"/>
       <c r="V5" s="7">
         <v>1</v>
       </c>
@@ -3404,60 +3305,12 @@
       <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="24">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="22">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="N6" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="S6" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="9">
-        <v>0.375</v>
-      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="10"/>
       <c r="V6" s="7">
         <v>0</v>
       </c>
@@ -3520,60 +3373,12 @@
       <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="7">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="E7" s="24">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0.1333</v>
-      </c>
-      <c r="N7" s="24">
-        <v>0.1333</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0.1333</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0.1333</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>0.1176</v>
-      </c>
-      <c r="R7" s="8">
-        <v>0.1333</v>
-      </c>
-      <c r="S7" s="8">
-        <v>0.1333</v>
-      </c>
-      <c r="T7" s="8">
-        <v>0.1176</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0.1333</v>
-      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="10"/>
       <c r="V7" s="7">
         <v>1</v>
       </c>
@@ -3636,60 +3441,12 @@
       <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="24">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="22">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9">
-        <v>1</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="24">
-        <v>1</v>
-      </c>
-      <c r="O8" s="8">
-        <v>1</v>
-      </c>
-      <c r="P8" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="R8" s="8">
-        <v>1</v>
-      </c>
-      <c r="S8" s="8">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="T8" s="8">
-        <v>6.25E-2</v>
-      </c>
-      <c r="U8" s="9">
-        <v>6.6699999999999995E-2</v>
-      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="10"/>
       <c r="V8" s="7">
         <v>1</v>
       </c>
@@ -3752,60 +3509,12 @@
       <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="24">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="22">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="N9" s="24">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Q9" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="R9" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="S9" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="T9" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="U9" s="9">
-        <v>0.25</v>
-      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="10"/>
       <c r="V9" s="7">
         <v>0</v>
       </c>
@@ -3868,60 +3577,12 @@
       <c r="C10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="24">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="21">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1</v>
-      </c>
-      <c r="J10" s="9">
-        <v>1</v>
-      </c>
-      <c r="K10" s="9">
-        <v>1</v>
-      </c>
-      <c r="L10" s="9">
-        <v>1</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="24">
-        <v>1</v>
-      </c>
-      <c r="O10" s="8">
-        <v>1</v>
-      </c>
-      <c r="P10" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>1</v>
-      </c>
-      <c r="R10" s="8">
-        <v>1</v>
-      </c>
-      <c r="S10" s="8">
-        <v>1</v>
-      </c>
-      <c r="T10" s="8">
-        <v>1</v>
-      </c>
-      <c r="U10" s="9">
-        <v>1</v>
-      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="10"/>
       <c r="V10" s="7">
         <v>0</v>
       </c>
@@ -3984,60 +3645,12 @@
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="24">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="21">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9">
-        <v>1</v>
-      </c>
-      <c r="L11" s="9">
-        <v>1</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="N11" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="P11" s="8">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="Q11" s="21">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="R11" s="8">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="S11" s="8">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="T11" s="8">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="U11" s="9">
-        <v>0.33329999999999999</v>
-      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="10"/>
       <c r="V11" s="7">
         <v>1</v>
       </c>
@@ -4100,60 +3713,12 @@
       <c r="C12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="27">
-        <v>1</v>
-      </c>
-      <c r="E12" s="28">
-        <v>1</v>
-      </c>
-      <c r="F12" s="29">
-        <v>1</v>
-      </c>
-      <c r="G12" s="29">
-        <v>1</v>
-      </c>
-      <c r="H12" s="30">
-        <v>1</v>
-      </c>
-      <c r="I12" s="31">
-        <v>1</v>
-      </c>
-      <c r="J12" s="31">
-        <v>1</v>
-      </c>
-      <c r="K12" s="31">
-        <v>1</v>
-      </c>
-      <c r="L12" s="31">
-        <v>1</v>
-      </c>
-      <c r="M12" s="27">
-        <v>1</v>
-      </c>
-      <c r="N12" s="28">
-        <v>1</v>
-      </c>
-      <c r="O12" s="29">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="P12" s="29">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="Q12" s="30">
-        <v>1.15E-2</v>
-      </c>
-      <c r="R12" s="29">
-        <v>1.14E-2</v>
-      </c>
-      <c r="S12" s="29">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="T12" s="29">
-        <v>1.15E-2</v>
-      </c>
-      <c r="U12" s="31">
-        <v>1.14E-2</v>
-      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="32"/>
       <c r="V12" s="27">
         <v>1</v>
       </c>
@@ -4212,75 +3777,27 @@
     <row r="13" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D13" s="34">
         <f>AVERAGE(D4:D12)</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="E13" s="35">
+        <v>0</v>
+      </c>
+      <c r="E13" s="62">
         <f t="shared" ref="E13:AL13" si="0">AVERAGE(E4:E12)</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="F13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="G13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="H13" s="37">
-        <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="I13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="J13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.94074444444444438</v>
-      </c>
-      <c r="K13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.94074444444444438</v>
-      </c>
-      <c r="L13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.94074444444444438</v>
-      </c>
-      <c r="M13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.63888888888888884</v>
-      </c>
-      <c r="N13" s="35">
-        <f t="shared" si="0"/>
-        <v>0.65370000000000006</v>
-      </c>
-      <c r="O13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.57962222222222226</v>
-      </c>
-      <c r="P13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.42848888888888886</v>
-      </c>
-      <c r="Q13" s="37">
-        <f t="shared" si="0"/>
-        <v>0.43101111111111107</v>
-      </c>
-      <c r="R13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.4201333333333333</v>
-      </c>
-      <c r="S13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.25935555555555556</v>
-      </c>
-      <c r="T13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.26317777777777773</v>
-      </c>
-      <c r="U13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.25148888888888887</v>
+        <v>0</v>
+      </c>
+      <c r="F13" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="34">
+        <f>AVERAGE(G4:G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="62">
+        <f t="shared" ref="H13:I13" si="1">AVERAGE(H4:H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V13" s="36">
         <f t="shared" si="0"/>
@@ -4417,19 +3934,19 @@
         <v>61</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="39" t="s">
         <v>55</v>
+      </c>
+      <c r="I18" s="39">
+        <v>2012</v>
       </c>
       <c r="J18" s="39">
         <v>2012</v>
@@ -4449,19 +3966,19 @@
         <v>56</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G19" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I19" s="39" t="s">
         <v>58</v>
       </c>
       <c r="J19" s="39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
@@ -4478,7 +3995,7 @@
         <v>62</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>63</v>
@@ -4498,13 +4015,13 @@
         <v>61</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>64</v>
@@ -4524,19 +4041,19 @@
         <v>61</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F22" s="39" t="s">
         <v>67</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
@@ -4550,7 +4067,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F23" s="39" t="s">
         <v>68</v>
@@ -4571,10 +4088,10 @@
         <v>73</v>
       </c>
       <c r="L23" s="39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M23" s="39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
@@ -4591,7 +4108,7 @@
         <v>74</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>76</v>
@@ -4609,7 +4126,7 @@
         <v>75</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
@@ -4626,7 +4143,7 @@
         <v>80</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G25" s="39" t="s">
         <v>81</v>
@@ -4650,10 +4167,10 @@
   <mergeCells count="8">
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:L16"/>
-    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="D1:I1"/>
     <mergeCell ref="V1:AM1"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
     <mergeCell ref="V2:AD2"/>
     <mergeCell ref="AE2:AM2"/>
   </mergeCells>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="113">
   <si>
     <t>th_krm</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>spouse age 35</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>Hammer on Test 2</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -881,6 +887,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -901,7 +922,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -998,7 +1019,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="11" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1014,6 +1039,28 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
@@ -1298,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM26"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9:AK10"/>
+    <sheetView topLeftCell="Q1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1842,7 +1889,7 @@
       <c r="AD6" s="10">
         <v>1</v>
       </c>
-      <c r="AE6" s="66">
+      <c r="AE6" s="68">
         <v>0</v>
       </c>
       <c r="AF6" s="24">
@@ -1851,7 +1898,7 @@
       <c r="AG6" s="8">
         <v>0.51429999999999998</v>
       </c>
-      <c r="AH6" s="67">
+      <c r="AH6" s="69">
         <v>0</v>
       </c>
       <c r="AI6" s="21">
@@ -1860,7 +1907,7 @@
       <c r="AJ6" s="8">
         <v>0.4854</v>
       </c>
-      <c r="AK6" s="67">
+      <c r="AK6" s="69">
         <v>0</v>
       </c>
       <c r="AL6" s="8">
@@ -2190,7 +2237,7 @@
       <c r="AD9" s="10">
         <v>1</v>
       </c>
-      <c r="AE9" s="66">
+      <c r="AE9" s="68">
         <v>0</v>
       </c>
       <c r="AF9" s="24">
@@ -2199,7 +2246,7 @@
       <c r="AG9" s="8">
         <v>0.5</v>
       </c>
-      <c r="AH9" s="67">
+      <c r="AH9" s="69">
         <v>0</v>
       </c>
       <c r="AI9" s="21">
@@ -2208,7 +2255,7 @@
       <c r="AJ9" s="8">
         <v>0.5</v>
       </c>
-      <c r="AK9" s="67">
+      <c r="AK9" s="69">
         <v>0</v>
       </c>
       <c r="AL9" s="8">
@@ -2306,7 +2353,7 @@
       <c r="AD10" s="10">
         <v>1</v>
       </c>
-      <c r="AE10" s="66">
+      <c r="AE10" s="68">
         <v>0</v>
       </c>
       <c r="AF10" s="24">
@@ -2315,7 +2362,7 @@
       <c r="AG10" s="8">
         <v>0.94740000000000002</v>
       </c>
-      <c r="AH10" s="67">
+      <c r="AH10" s="69">
         <v>0</v>
       </c>
       <c r="AI10" s="21">
@@ -2324,7 +2371,7 @@
       <c r="AJ10" s="8">
         <v>0.94740000000000002</v>
       </c>
-      <c r="AK10" s="67">
+      <c r="AK10" s="69">
         <v>0</v>
       </c>
       <c r="AL10" s="8">
@@ -2998,934 +3045,463 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AM28"/>
+  <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:I18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="63" t="s">
+    <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+    </row>
+    <row r="2" spans="2:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
-      <c r="V1" s="51" t="s">
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
+      <c r="K2" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="67"/>
+      <c r="M2" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="53"/>
-    </row>
-    <row r="2" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="56" t="s">
+      <c r="N2" s="53"/>
+    </row>
+    <row r="3" spans="2:20" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="44" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="54"/>
-      <c r="V2" s="41" t="s">
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
+      <c r="K3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="44" t="s">
+      <c r="L3" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="54"/>
-    </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="M3" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E4" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F4" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H4" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I4" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="V3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM3" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="K4" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="M4" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="60">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="60">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="V4" s="7">
-        <v>1</v>
-      </c>
-      <c r="W4" s="24">
-        <v>1</v>
-      </c>
-      <c r="X4" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="21">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="AF4" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AI4" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AK4" s="8">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="AL4" s="8">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="AM4" s="10">
-        <v>3.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="60"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="62">
+        <v>0</v>
+      </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="60"/>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="62">
+        <v>0</v>
+      </c>
       <c r="I5" s="10"/>
-      <c r="V5" s="7">
-        <v>1</v>
-      </c>
-      <c r="W5" s="24">
-        <v>1</v>
-      </c>
-      <c r="X5" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="21">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="15">
-        <v>0.89910000000000001</v>
-      </c>
-      <c r="AF5" s="24">
-        <v>0.89910000000000001</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>0.89910000000000001</v>
-      </c>
-      <c r="AI5" s="21">
-        <v>0.89910000000000001</v>
-      </c>
-      <c r="AJ5" s="8">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="AK5" s="8">
-        <v>0.89910000000000001</v>
-      </c>
-      <c r="AL5" s="8">
-        <v>0.89910000000000001</v>
-      </c>
-      <c r="AM5" s="10">
-        <v>0.54400000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="K5" s="76">
+        <v>0.1333</v>
+      </c>
+      <c r="L5" s="77">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="M5" s="76">
+        <v>0.1333</v>
+      </c>
+      <c r="N5" s="77">
+        <v>0.66669999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="60"/>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="62">
+        <v>0</v>
+      </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="60"/>
+      <c r="G6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="62">
+        <v>0</v>
+      </c>
       <c r="I6" s="10"/>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-      <c r="W6" s="24">
-        <v>1</v>
-      </c>
-      <c r="X6" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="21">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="24">
-        <v>0.51429999999999998</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>0.51429999999999998</v>
-      </c>
-      <c r="AH6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="21">
-        <v>0.4854</v>
-      </c>
-      <c r="AJ6" s="8">
-        <v>0.4854</v>
-      </c>
-      <c r="AK6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="8">
-        <v>0.4854</v>
-      </c>
-      <c r="AM6" s="10">
-        <v>0.4854</v>
-      </c>
-    </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="K6" s="76">
+        <v>1</v>
+      </c>
+      <c r="L6" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="76">
+        <v>1</v>
+      </c>
+      <c r="N6" s="77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="60"/>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="62">
+        <v>0</v>
+      </c>
       <c r="F7" s="10"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="60"/>
+      <c r="G7" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H7" s="62">
+        <v>0</v>
+      </c>
       <c r="I7" s="10"/>
-      <c r="V7" s="7">
-        <v>1</v>
-      </c>
-      <c r="W7" s="24">
-        <v>1</v>
-      </c>
-      <c r="X7" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="21">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="15">
-        <v>0.10390000000000001</v>
-      </c>
-      <c r="AF7" s="24">
-        <v>0.1439</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="AH7" s="8">
-        <v>0.10390000000000001</v>
-      </c>
-      <c r="AI7" s="21">
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="AJ7" s="8">
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="AK7" s="8">
-        <v>0.10390000000000001</v>
-      </c>
-      <c r="AL7" s="8">
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="AM7" s="10">
-        <v>9.7199999999999995E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="K7" s="76">
+        <v>1</v>
+      </c>
+      <c r="L7" s="77">
+        <v>0.75</v>
+      </c>
+      <c r="M7" s="76">
+        <v>1</v>
+      </c>
+      <c r="N7" s="77">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="60"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="10"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="60"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="10"/>
-      <c r="V8" s="7">
-        <v>1</v>
-      </c>
-      <c r="W8" s="24">
-        <v>1</v>
-      </c>
-      <c r="X8" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="21">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="24">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="8">
-        <v>0.24729999999999999</v>
-      </c>
-      <c r="AL8" s="8">
-        <v>0.32850000000000001</v>
-      </c>
-      <c r="AM8" s="10">
-        <v>0.49459999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="K8" s="76">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="L8" s="77">
+        <v>0.1333</v>
+      </c>
+      <c r="M8" s="76">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="N8" s="77">
+        <v>0.1333</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="60"/>
+      <c r="E9" s="62"/>
       <c r="F9" s="10"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="60"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="10"/>
-      <c r="V9" s="7">
-        <v>0</v>
-      </c>
-      <c r="W9" s="24">
-        <v>1</v>
-      </c>
-      <c r="X9" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="21">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="24">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AH9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AK9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="K9" s="76">
+        <v>1</v>
+      </c>
+      <c r="L9" s="77">
+        <v>1</v>
+      </c>
+      <c r="M9" s="76">
+        <v>1</v>
+      </c>
+      <c r="N9" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="60"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="10"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="60"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="10"/>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-      <c r="W10" s="24">
-        <v>1</v>
-      </c>
-      <c r="X10" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="21">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="24">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="8">
-        <v>0.94740000000000002</v>
-      </c>
-      <c r="AH10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="8">
-        <v>0.94740000000000002</v>
-      </c>
-      <c r="AK10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="10">
-        <v>0.94740000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="K10" s="76">
+        <v>1</v>
+      </c>
+      <c r="L10" s="77">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="M10" s="76">
+        <v>1</v>
+      </c>
+      <c r="N10" s="77">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="60"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="10"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="60"/>
+      <c r="H11" s="62"/>
       <c r="I11" s="10"/>
-      <c r="V11" s="7">
-        <v>1</v>
-      </c>
-      <c r="W11" s="24">
-        <v>1</v>
-      </c>
-      <c r="X11" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="21">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="AF11" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AH11" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AI11" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="AJ11" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AK11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="76">
+        <v>1</v>
+      </c>
+      <c r="L11" s="77">
+        <v>1</v>
+      </c>
+      <c r="M11" s="76">
+        <v>1</v>
+      </c>
+      <c r="N11" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="32"/>
-      <c r="V12" s="27">
-        <v>1</v>
-      </c>
-      <c r="W12" s="28">
-        <v>1</v>
-      </c>
-      <c r="X12" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="29">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="29">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="32">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="33">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="28">
-        <v>0.13639999999999999</v>
-      </c>
-      <c r="AG12" s="29">
-        <v>6.3E-2</v>
-      </c>
-      <c r="AH12" s="29">
-        <v>1.77E-2</v>
-      </c>
-      <c r="AI12" s="30">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AJ12" s="29">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="AK12" s="29">
-        <v>1.77E-2</v>
-      </c>
-      <c r="AL12" s="29">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AM12" s="32">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="34">
-        <f>AVERAGE(D4:D12)</f>
+      <c r="D12" s="7"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="10"/>
+      <c r="K12" s="76">
+        <v>1</v>
+      </c>
+      <c r="L12" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="76">
+        <v>1</v>
+      </c>
+      <c r="N12" s="77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="32"/>
+      <c r="K13" s="78">
+        <v>1</v>
+      </c>
+      <c r="L13" s="79">
+        <v>1</v>
+      </c>
+      <c r="M13" s="78">
+        <v>1</v>
+      </c>
+      <c r="N13" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="34">
+        <f>AVERAGE(D5:D13)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E14" s="64">
+        <f t="shared" ref="E14:F14" si="0">AVERAGE(E5:E13)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="62">
-        <f t="shared" ref="E13:AL13" si="0">AVERAGE(E4:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="38" t="e">
+      <c r="F14" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="34">
-        <f>AVERAGE(G4:G12)</f>
+      <c r="G14" s="34">
+        <f>AVERAGE(G5:G13)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="H14" s="64">
+        <f t="shared" ref="H14:I14" si="1">AVERAGE(H5:H13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="62">
-        <f t="shared" ref="H13:I13" si="1">AVERAGE(H4:H12)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="38" t="e">
+      <c r="I14" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="W13" s="35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X13" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Z13" s="37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AA13" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AC13" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD13" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.44477777777777777</v>
-      </c>
-      <c r="AF13" s="35">
-        <f t="shared" si="0"/>
-        <v>0.63263333333333327</v>
-      </c>
-      <c r="AG13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.5184333333333333</v>
-      </c>
-      <c r="AH13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.33563333333333334</v>
-      </c>
-      <c r="AI13" s="37">
-        <f t="shared" si="0"/>
-        <v>0.60941111111111113</v>
-      </c>
-      <c r="AJ13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.5082888888888889</v>
-      </c>
-      <c r="AK13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.25234444444444448</v>
-      </c>
-      <c r="AL13" s="36">
-        <f t="shared" si="0"/>
-        <v>0.53514444444444442</v>
-      </c>
-      <c r="AM13" s="38">
-        <f>AVERAGE(AM4:AM12)</f>
-        <v>0.39692222222222218</v>
-      </c>
-    </row>
-    <row r="16" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="C16" s="55" t="s">
+      <c r="K14" s="80">
+        <f t="shared" ref="K14:L14" si="2">AVERAGE(K5:K13)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L14" s="81">
+        <f t="shared" si="2"/>
+        <v>0.65370000000000006</v>
+      </c>
+      <c r="M14" s="80">
+        <f t="shared" ref="M14:N14" si="3">AVERAGE(M5:M13)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="N14" s="81">
+        <f t="shared" si="3"/>
+        <v>0.65370000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C17" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55" t="s">
+      <c r="D17" s="55"/>
+      <c r="E17" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="39" t="s">
-        <v>88</v>
-      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="39" t="s">
         <v>60</v>
@@ -3934,27 +3510,33 @@
         <v>61</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="39">
-        <v>2012</v>
-      </c>
-      <c r="J18" s="39">
-        <v>2012</v>
+        <v>84</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>60</v>
@@ -3963,27 +3545,25 @@
         <v>61</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>89</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I19" s="39">
+        <v>2012</v>
+      </c>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>60</v>
@@ -3992,21 +3572,27 @@
         <v>61</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>53</v>
+        <v>91</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C21" s="39" t="s">
         <v>60</v>
@@ -4015,24 +3601,21 @@
         <v>61</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C22" s="39" t="s">
         <v>60</v>
@@ -4041,24 +3624,24 @@
         <v>61</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="39" t="s">
         <v>60</v>
@@ -4067,36 +3650,24 @@
         <v>61</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="L23" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="M23" s="39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>60</v>
@@ -4105,33 +3676,36 @@
         <v>61</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J24" s="39" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K24" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>60</v>
@@ -4140,39 +3714,74 @@
         <v>61</v>
       </c>
       <c r="E25" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F26" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H26" s="39" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C26" s="39"/>
-      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C27" s="39"/>
       <c r="E27" s="39"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C28" s="39"/>
       <c r="E28" s="39"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E29" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="V1:AM1"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -3048,7 +3048,7 @@
   <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3292,11 +3292,19 @@
       <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="62"/>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="62">
+        <v>0</v>
+      </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="62"/>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="62">
+        <v>0</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="K8" s="76">
         <v>0.66669999999999996</v>
@@ -3444,7 +3452,7 @@
     <row r="14" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D14" s="34">
         <f>AVERAGE(D5:D13)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="64">
         <f t="shared" ref="E14:F14" si="0">AVERAGE(E5:E13)</f>
@@ -3456,7 +3464,7 @@
       </c>
       <c r="G14" s="34">
         <f>AVERAGE(G5:G13)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H14" s="64">
         <f t="shared" ref="H14:I14" si="1">AVERAGE(H5:H13)</f>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -3048,7 +3048,7 @@
   <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3326,11 +3326,19 @@
       <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="62"/>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="62">
+        <v>0</v>
+      </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="62"/>
+      <c r="G9" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H9" s="62">
+        <v>0</v>
+      </c>
       <c r="I9" s="10"/>
       <c r="K9" s="76">
         <v>1</v>
@@ -3452,7 +3460,7 @@
     <row r="14" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D14" s="34">
         <f>AVERAGE(D5:D13)</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E14" s="64">
         <f t="shared" ref="E14:F14" si="0">AVERAGE(E5:E13)</f>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="460" windowWidth="25460" windowHeight="13600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4820" yWindow="500" windowWidth="25460" windowHeight="13600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -348,12 +348,6 @@
     <t>year 2015</t>
   </si>
   <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Google CSE</t>
-  </si>
-  <si>
     <t>Apache Solr</t>
   </si>
   <si>
@@ -367,6 +361,12 @@
   </si>
   <si>
     <t>Hammer on Test 2</t>
+  </si>
+  <si>
+    <t>Google (2 pages)</t>
+  </si>
+  <si>
+    <t>Google CSE (2 pages)</t>
   </si>
 </sst>
 </file>
@@ -3048,20 +3048,23 @@
   <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K1" s="83" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L1" s="83"/>
       <c r="M1" s="83"/>
@@ -3135,34 +3138,34 @@
         <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>108</v>
-      </c>
       <c r="G4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>108</v>
-      </c>
       <c r="K4" s="74" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L4" s="75" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M4" s="74" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N4" s="75" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>15</v>
@@ -3360,11 +3363,19 @@
       <c r="C10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="62"/>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="62">
+        <v>0</v>
+      </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="62"/>
+      <c r="G10" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H10" s="62">
+        <v>0</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="K10" s="76">
         <v>1</v>
@@ -3460,7 +3471,7 @@
     <row r="14" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D14" s="34">
         <f>AVERAGE(D5:D13)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E14" s="64">
         <f t="shared" ref="E14:F14" si="0">AVERAGE(E5:E13)</f>
@@ -3472,7 +3483,7 @@
       </c>
       <c r="G14" s="34">
         <f>AVERAGE(G5:G13)</f>
-        <v>0.05</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="H14" s="64">
         <f t="shared" ref="H14:I14" si="1">AVERAGE(H5:H13)</f>
@@ -3561,10 +3572,10 @@
         <v>61</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G19" s="39" t="s">
         <v>54</v>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="500" windowWidth="25460" windowHeight="13600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4820" yWindow="460" windowWidth="25460" windowHeight="13600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -3047,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3397,11 +3397,19 @@
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="62"/>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="62">
+        <v>0</v>
+      </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="62"/>
+      <c r="G11" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="62">
+        <v>0</v>
+      </c>
       <c r="I11" s="10"/>
       <c r="K11" s="76">
         <v>1</v>
@@ -3423,11 +3431,19 @@
       <c r="C12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="62"/>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="62">
+        <v>1</v>
+      </c>
       <c r="F12" s="10"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="62"/>
+      <c r="G12" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="62">
+        <v>1</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="K12" s="76">
         <v>1</v>
@@ -3471,11 +3487,11 @@
     <row r="14" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D14" s="34">
         <f>AVERAGE(D5:D13)</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="E14" s="64">
         <f t="shared" ref="E14:F14" si="0">AVERAGE(E5:E13)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F14" s="38" t="e">
         <f t="shared" si="0"/>
@@ -3483,11 +3499,11 @@
       </c>
       <c r="G14" s="34">
         <f>AVERAGE(G5:G13)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11250000000000002</v>
       </c>
       <c r="H14" s="64">
         <f t="shared" ref="H14:I14" si="1">AVERAGE(H5:H13)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I14" s="38" t="e">
         <f t="shared" si="1"/>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -3047,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3465,11 +3465,19 @@
       <c r="C13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="63"/>
+      <c r="D13" s="27">
+        <v>1</v>
+      </c>
+      <c r="E13" s="63">
+        <v>1</v>
+      </c>
       <c r="F13" s="32"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="63"/>
+      <c r="G13" s="27">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="H13" s="63">
+        <v>1</v>
+      </c>
       <c r="I13" s="32"/>
       <c r="K13" s="78">
         <v>1</v>
@@ -3487,11 +3495,11 @@
     <row r="14" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D14" s="34">
         <f>AVERAGE(D5:D13)</f>
-        <v>0.75</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E14" s="64">
         <f t="shared" ref="E14:F14" si="0">AVERAGE(E5:E13)</f>
-        <v>0.125</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="F14" s="38" t="e">
         <f t="shared" si="0"/>
@@ -3499,11 +3507,11 @@
       </c>
       <c r="G14" s="34">
         <f>AVERAGE(G5:G13)</f>
-        <v>0.11250000000000002</v>
+        <v>0.13703333333333334</v>
       </c>
       <c r="H14" s="64">
         <f t="shared" ref="H14:I14" si="1">AVERAGE(H5:H13)</f>
-        <v>0.125</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="I14" s="38" t="e">
         <f t="shared" si="1"/>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -3047,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="460" windowWidth="25460" windowHeight="13600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="1440" windowWidth="25460" windowHeight="13600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -373,7 +373,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -450,6 +450,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -917,10 +925,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -965,7 +974,37 @@
     <xf numFmtId="10" fontId="10" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="11" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,6 +1022,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -990,24 +1035,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1022,12 +1049,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="11" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1037,33 +1067,13 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="8" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="8" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1346,7 +1356,7 @@
   <dimension ref="B1:AM26"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:AM1"/>
+      <selection activeCell="W4" sqref="W4:W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1366,92 +1376,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="51" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="53"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="62"/>
     </row>
     <row r="2" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="41" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="44" t="s">
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="54"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="68"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
@@ -1889,7 +1899,7 @@
       <c r="AD6" s="10">
         <v>1</v>
       </c>
-      <c r="AE6" s="68">
+      <c r="AE6" s="46">
         <v>0</v>
       </c>
       <c r="AF6" s="24">
@@ -1898,7 +1908,7 @@
       <c r="AG6" s="8">
         <v>0.51429999999999998</v>
       </c>
-      <c r="AH6" s="69">
+      <c r="AH6" s="47">
         <v>0</v>
       </c>
       <c r="AI6" s="21">
@@ -1907,7 +1917,7 @@
       <c r="AJ6" s="8">
         <v>0.4854</v>
       </c>
-      <c r="AK6" s="69">
+      <c r="AK6" s="47">
         <v>0</v>
       </c>
       <c r="AL6" s="8">
@@ -2237,7 +2247,7 @@
       <c r="AD9" s="10">
         <v>1</v>
       </c>
-      <c r="AE9" s="68">
+      <c r="AE9" s="46">
         <v>0</v>
       </c>
       <c r="AF9" s="24">
@@ -2246,7 +2256,7 @@
       <c r="AG9" s="8">
         <v>0.5</v>
       </c>
-      <c r="AH9" s="69">
+      <c r="AH9" s="47">
         <v>0</v>
       </c>
       <c r="AI9" s="21">
@@ -2255,7 +2265,7 @@
       <c r="AJ9" s="8">
         <v>0.5</v>
       </c>
-      <c r="AK9" s="69">
+      <c r="AK9" s="47">
         <v>0</v>
       </c>
       <c r="AL9" s="8">
@@ -2353,7 +2363,7 @@
       <c r="AD10" s="10">
         <v>1</v>
       </c>
-      <c r="AE10" s="68">
+      <c r="AE10" s="46">
         <v>0</v>
       </c>
       <c r="AF10" s="24">
@@ -2362,7 +2372,7 @@
       <c r="AG10" s="8">
         <v>0.94740000000000002</v>
       </c>
-      <c r="AH10" s="69">
+      <c r="AH10" s="47">
         <v>0</v>
       </c>
       <c r="AI10" s="21">
@@ -2371,7 +2381,7 @@
       <c r="AJ10" s="8">
         <v>0.94740000000000002</v>
       </c>
-      <c r="AK10" s="69">
+      <c r="AK10" s="47">
         <v>0</v>
       </c>
       <c r="AL10" s="8">
@@ -2760,10 +2770,10 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="64" x14ac:dyDescent="0.2">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2782,15 +2792,15 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40" t="s">
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
@@ -2811,17 +2821,17 @@
       <c r="H18" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="40" t="s">
+      <c r="M18" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40">
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69">
         <v>2300</v>
       </c>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
@@ -2842,17 +2852,17 @@
       <c r="H19" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="40" t="s">
+      <c r="M19" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40">
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69">
         <v>10180</v>
       </c>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
@@ -2873,17 +2883,17 @@
       <c r="H20" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="40" t="s">
+      <c r="M20" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40">
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69">
         <v>4838568</v>
       </c>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
@@ -2904,17 +2914,17 @@
       <c r="H21" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="47" t="s">
+      <c r="M21" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="48" t="s">
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
@@ -3018,13 +3028,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="V1:AM1"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="M17:O17"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="D2:L2"/>
@@ -3035,6 +3038,13 @@
     <mergeCell ref="P20:S20"/>
     <mergeCell ref="P18:S18"/>
     <mergeCell ref="M18:O18"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="V1:AM1"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="M17:O17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P21" r:id="rId1"/>
@@ -3048,7 +3058,7 @@
   <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3071,47 +3081,47 @@
       <c r="N1" s="83"/>
     </row>
     <row r="2" spans="2:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-      <c r="K2" s="65" t="s">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
+      <c r="K2" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="51" t="s">
+      <c r="L2" s="82"/>
+      <c r="M2" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="53"/>
+      <c r="N2" s="62"/>
     </row>
     <row r="3" spans="2:20" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="70" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72"/>
-      <c r="K3" s="59" t="s">
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="K3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="59" t="s">
+      <c r="M3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="73" t="s">
+      <c r="N3" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="82" t="s">
+      <c r="O3" s="57" t="s">
         <v>14</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -3140,31 +3150,31 @@
       <c r="D4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="41" t="s">
         <v>106</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="75" t="s">
+      <c r="L4" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="50" t="s">
         <v>109</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -3196,28 +3206,32 @@
       <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="43">
         <v>0</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
       <c r="G5" s="7">
         <v>0</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="43">
         <v>0</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="K5" s="76">
+      <c r="I5" s="10">
+        <v>0.22090000000000001</v>
+      </c>
+      <c r="K5" s="51">
         <v>0.1333</v>
       </c>
-      <c r="L5" s="77">
+      <c r="L5" s="52">
         <v>0.66669999999999996</v>
       </c>
-      <c r="M5" s="76">
-        <v>0.1333</v>
-      </c>
-      <c r="N5" s="77">
-        <v>0.66669999999999996</v>
+      <c r="M5" s="51">
+        <v>1</v>
+      </c>
+      <c r="N5" s="52">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
@@ -3230,28 +3244,32 @@
       <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="43">
         <v>0</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
       <c r="G6" s="7">
         <v>0.05</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="43">
         <v>0</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="K6" s="76">
-        <v>1</v>
-      </c>
-      <c r="L6" s="77">
+      <c r="I6" s="10">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="K6" s="51">
+        <v>1</v>
+      </c>
+      <c r="L6" s="52">
         <v>0.5</v>
       </c>
-      <c r="M6" s="76">
-        <v>1</v>
-      </c>
-      <c r="N6" s="77">
-        <v>0.5</v>
+      <c r="M6" s="51">
+        <v>1</v>
+      </c>
+      <c r="N6" s="52">
+        <v>0.89910000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
@@ -3264,28 +3282,32 @@
       <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="43">
         <v>0</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
       <c r="G7" s="7">
         <v>0.15</v>
       </c>
-      <c r="H7" s="62">
+      <c r="H7" s="43">
         <v>0</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="K7" s="76">
-        <v>1</v>
-      </c>
-      <c r="L7" s="77">
+      <c r="I7" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="K7" s="51">
+        <v>1</v>
+      </c>
+      <c r="L7" s="52">
         <v>0.75</v>
       </c>
-      <c r="M7" s="76">
-        <v>1</v>
-      </c>
-      <c r="N7" s="77">
-        <v>0.75</v>
+      <c r="M7" s="51">
+        <v>1</v>
+      </c>
+      <c r="N7" s="52">
+        <v>0.51429999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
@@ -3298,28 +3320,28 @@
       <c r="D8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="43">
         <v>0</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="7">
         <v>0</v>
       </c>
-      <c r="H8" s="62">
+      <c r="H8" s="43">
         <v>0</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="K8" s="76">
+      <c r="K8" s="51">
         <v>0.66669999999999996</v>
       </c>
-      <c r="L8" s="77">
+      <c r="L8" s="52">
         <v>0.1333</v>
       </c>
-      <c r="M8" s="76">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="N8" s="77">
-        <v>0.1333</v>
+      <c r="M8" s="51">
+        <v>1</v>
+      </c>
+      <c r="N8" s="52">
+        <v>0.1439</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
@@ -3332,27 +3354,27 @@
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="43">
         <v>0</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="7">
         <v>0.05</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="43">
         <v>0</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="K9" s="76">
-        <v>1</v>
-      </c>
-      <c r="L9" s="77">
-        <v>1</v>
-      </c>
-      <c r="M9" s="76">
-        <v>1</v>
-      </c>
-      <c r="N9" s="77">
+      <c r="K9" s="51">
+        <v>1</v>
+      </c>
+      <c r="L9" s="52">
+        <v>1</v>
+      </c>
+      <c r="M9" s="51">
+        <v>1</v>
+      </c>
+      <c r="N9" s="52">
         <v>1</v>
       </c>
     </row>
@@ -3366,28 +3388,28 @@
       <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="43">
         <v>0</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="7">
         <v>0.15</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="43">
         <v>0</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="K10" s="76">
-        <v>1</v>
-      </c>
-      <c r="L10" s="77">
+      <c r="K10" s="51">
+        <v>1</v>
+      </c>
+      <c r="L10" s="52">
         <v>0.33329999999999999</v>
       </c>
-      <c r="M10" s="76">
-        <v>1</v>
-      </c>
-      <c r="N10" s="77">
-        <v>0.33329999999999999</v>
+      <c r="M10" s="51">
+        <v>1</v>
+      </c>
+      <c r="N10" s="52">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
@@ -3400,27 +3422,27 @@
       <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="43">
         <v>0</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="7">
         <v>0.2</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="43">
         <v>0</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="K11" s="76">
-        <v>1</v>
-      </c>
-      <c r="L11" s="77">
-        <v>1</v>
-      </c>
-      <c r="M11" s="76">
-        <v>1</v>
-      </c>
-      <c r="N11" s="77">
+      <c r="K11" s="51">
+        <v>1</v>
+      </c>
+      <c r="L11" s="52">
+        <v>1</v>
+      </c>
+      <c r="M11" s="51">
+        <v>1</v>
+      </c>
+      <c r="N11" s="52">
         <v>1</v>
       </c>
     </row>
@@ -3434,27 +3456,27 @@
       <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="43">
         <v>1</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="7">
         <v>0.3</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="43">
         <v>1</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="K12" s="76">
-        <v>1</v>
-      </c>
-      <c r="L12" s="77">
+      <c r="K12" s="51">
+        <v>1</v>
+      </c>
+      <c r="L12" s="52">
         <v>0.5</v>
       </c>
-      <c r="M12" s="76">
-        <v>1</v>
-      </c>
-      <c r="N12" s="77">
+      <c r="M12" s="51">
+        <v>1</v>
+      </c>
+      <c r="N12" s="52">
         <v>0.5</v>
       </c>
     </row>
@@ -3468,28 +3490,28 @@
       <c r="D13" s="27">
         <v>1</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="44">
         <v>1</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="27">
         <v>0.33329999999999999</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="44">
         <v>1</v>
       </c>
       <c r="I13" s="32"/>
-      <c r="K13" s="78">
-        <v>1</v>
-      </c>
-      <c r="L13" s="79">
-        <v>1</v>
-      </c>
-      <c r="M13" s="78">
-        <v>1</v>
-      </c>
-      <c r="N13" s="79">
-        <v>1</v>
+      <c r="K13" s="53">
+        <v>1</v>
+      </c>
+      <c r="L13" s="54">
+        <v>1</v>
+      </c>
+      <c r="M13" s="53">
+        <v>1</v>
+      </c>
+      <c r="N13" s="54">
+        <v>0.13639999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3497,58 +3519,56 @@
         <f>AVERAGE(D5:D13)</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="45">
         <f t="shared" ref="E14:F14" si="0">AVERAGE(E5:E13)</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F14" s="38" t="e">
+      <c r="F14" s="38">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="G14" s="34">
         <f>AVERAGE(G5:G13)</f>
         <v>0.13703333333333334</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="45">
         <f t="shared" ref="H14:I14" si="1">AVERAGE(H5:H13)</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="I14" s="38" t="e">
+      <c r="I14" s="38">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="80">
+        <v>0.16350000000000001</v>
+      </c>
+      <c r="K14" s="55">
         <f t="shared" ref="K14:L14" si="2">AVERAGE(K5:K13)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="L14" s="81">
+      <c r="L14" s="56">
         <f t="shared" si="2"/>
         <v>0.65370000000000006</v>
       </c>
-      <c r="M14" s="80">
-        <f t="shared" ref="M14:N14" si="3">AVERAGE(M5:M13)</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="N14" s="81">
-        <f t="shared" si="3"/>
-        <v>0.65370000000000006</v>
+      <c r="M14" s="55">
+        <v>1</v>
+      </c>
+      <c r="N14" s="56">
+        <v>0.63263333333333327</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55" t="s">
+      <c r="D17" s="73"/>
+      <c r="E17" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
@@ -3825,14 +3845,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:L17"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -3058,7 +3058,7 @@
   <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3323,14 +3323,18 @@
       <c r="E8" s="43">
         <v>0</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
       <c r="G8" s="7">
         <v>0</v>
       </c>
       <c r="H8" s="43">
         <v>0</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="10">
+        <v>0.33329999999999999</v>
+      </c>
       <c r="K8" s="51">
         <v>0.66669999999999996</v>
       </c>
@@ -3537,7 +3541,7 @@
       </c>
       <c r="I14" s="38">
         <f t="shared" si="1"/>
-        <v>0.16350000000000001</v>
+        <v>0.20595000000000002</v>
       </c>
       <c r="K14" s="55">
         <f t="shared" ref="K14:L14" si="2">AVERAGE(K5:K13)</f>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -3058,7 +3058,7 @@
   <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3361,14 +3361,18 @@
       <c r="E9" s="43">
         <v>0</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
       <c r="G9" s="7">
         <v>0.05</v>
       </c>
       <c r="H9" s="43">
         <v>0</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
       <c r="K9" s="51">
         <v>1</v>
       </c>
@@ -3395,14 +3399,18 @@
       <c r="E10" s="43">
         <v>0</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
       <c r="G10" s="7">
         <v>0.15</v>
       </c>
       <c r="H10" s="43">
         <v>0</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="10">
+        <v>0.1</v>
+      </c>
       <c r="K10" s="51">
         <v>1</v>
       </c>
@@ -3541,7 +3549,7 @@
       </c>
       <c r="I14" s="38">
         <f t="shared" si="1"/>
-        <v>0.20595000000000002</v>
+        <v>0.32063333333333338</v>
       </c>
       <c r="K14" s="55">
         <f t="shared" ref="K14:L14" si="2">AVERAGE(K5:K13)</f>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -3058,7 +3058,7 @@
   <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3437,14 +3437,18 @@
       <c r="E11" s="43">
         <v>0</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
       <c r="G11" s="7">
         <v>0.2</v>
       </c>
       <c r="H11" s="43">
         <v>0</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="10">
+        <v>0.16669999999999999</v>
+      </c>
       <c r="K11" s="51">
         <v>1</v>
       </c>
@@ -3549,7 +3553,7 @@
       </c>
       <c r="I14" s="38">
         <f t="shared" si="1"/>
-        <v>0.32063333333333338</v>
+        <v>0.29864285714285715</v>
       </c>
       <c r="K14" s="55">
         <f t="shared" ref="K14:L14" si="2">AVERAGE(K5:K13)</f>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -3058,7 +3058,7 @@
   <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3475,14 +3475,18 @@
       <c r="E12" s="43">
         <v>1</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
       <c r="G12" s="7">
         <v>0.3</v>
       </c>
       <c r="H12" s="43">
         <v>1</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="10">
+        <v>0.2</v>
+      </c>
       <c r="K12" s="51">
         <v>1</v>
       </c>
@@ -3509,14 +3513,18 @@
       <c r="E13" s="44">
         <v>1</v>
       </c>
-      <c r="F13" s="32"/>
+      <c r="F13" s="32">
+        <v>1</v>
+      </c>
       <c r="G13" s="27">
         <v>0.33329999999999999</v>
       </c>
       <c r="H13" s="44">
         <v>1</v>
       </c>
-      <c r="I13" s="32"/>
+      <c r="I13" s="32">
+        <v>1</v>
+      </c>
       <c r="K13" s="53">
         <v>1</v>
       </c>
@@ -3553,7 +3561,7 @@
       </c>
       <c r="I14" s="38">
         <f t="shared" si="1"/>
-        <v>0.29864285714285715</v>
+        <v>0.36561111111111111</v>
       </c>
       <c r="K14" s="55">
         <f t="shared" ref="K14:L14" si="2">AVERAGE(K5:K13)</f>

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1440" windowWidth="25460" windowHeight="13600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="140" yWindow="1440" windowWidth="25460" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -992,19 +992,7 @@
     <xf numFmtId="10" fontId="10" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="10" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1022,12 +1010,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1035,6 +1017,27 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1065,9 +1068,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1355,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM26"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:W13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1376,92 +1376,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="60" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="62"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="71"/>
     </row>
     <row r="2" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="63" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66" t="s">
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="68"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="72"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
@@ -2770,10 +2770,10 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="64" x14ac:dyDescent="0.2">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="59"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2792,15 +2792,15 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69" t="s">
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
@@ -2821,17 +2821,17 @@
       <c r="H18" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="69" t="s">
+      <c r="M18" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69">
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58">
         <v>2300</v>
       </c>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
@@ -2852,17 +2852,17 @@
       <c r="H19" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="69" t="s">
+      <c r="M19" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69">
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58">
         <v>10180</v>
       </c>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
@@ -2883,17 +2883,17 @@
       <c r="H20" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="69" t="s">
+      <c r="M20" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69">
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58">
         <v>4838568</v>
       </c>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
@@ -2914,17 +2914,17 @@
       <c r="H21" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="72" t="s">
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
@@ -3028,6 +3028,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="V1:AM1"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="M17:O17"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="D2:L2"/>
@@ -3038,13 +3045,6 @@
     <mergeCell ref="P20:S20"/>
     <mergeCell ref="P18:S18"/>
     <mergeCell ref="M18:O18"/>
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="V1:AM1"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="M17:O17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P21" r:id="rId1"/>
@@ -3057,8 +3057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3073,42 +3073,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
     </row>
     <row r="2" spans="2:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="82"/>
-      <c r="K2" s="80" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
+      <c r="K2" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="60" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="62"/>
+      <c r="N2" s="71"/>
     </row>
     <row r="3" spans="2:20" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80"/>
       <c r="K3" s="40" t="s">
         <v>13</v>
       </c>
@@ -3579,20 +3579,20 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73" t="s">
+      <c r="D17" s="74"/>
+      <c r="E17" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">

--- a/hammer-colombo/fuzzy-examples-set/test.xlsx
+++ b/hammer-colombo/fuzzy-examples-set/test.xlsx
@@ -992,7 +992,19 @@
     <xf numFmtId="10" fontId="10" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="10" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1010,6 +1022,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1017,24 +1035,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1355,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:I19"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1376,92 +1376,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="69" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="71"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="62"/>
     </row>
     <row r="2" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="59" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="62" t="s">
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="72"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="68"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
@@ -2770,10 +2770,10 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="64" x14ac:dyDescent="0.2">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2792,15 +2792,15 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58" t="s">
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
@@ -2821,17 +2821,17 @@
       <c r="H18" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="58" t="s">
+      <c r="M18" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58">
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69">
         <v>2300</v>
       </c>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
@@ -2852,17 +2852,17 @@
       <c r="H19" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="58" t="s">
+      <c r="M19" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58">
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69">
         <v>10180</v>
       </c>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
@@ -2883,17 +2883,17 @@
       <c r="H20" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="58" t="s">
+      <c r="M20" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58">
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69">
         <v>4838568</v>
       </c>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
@@ -2914,17 +2914,17 @@
       <c r="H21" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="65" t="s">
+      <c r="M21" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="66" t="s">
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
@@ -3028,13 +3028,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="V1:AM1"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="M17:O17"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="D2:L2"/>
@@ -3045,6 +3038,13 @@
     <mergeCell ref="P20:S20"/>
     <mergeCell ref="P18:S18"/>
     <mergeCell ref="M18:O18"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="V1:AM1"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="M17:O17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P21" r:id="rId1"/>
@@ -3093,10 +3093,10 @@
         <v>46</v>
       </c>
       <c r="L2" s="83"/>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="71"/>
+      <c r="N2" s="62"/>
     </row>
     <row r="3" spans="2:20" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D3" s="75" t="s">
